--- a/tests/test1/d40/ЛМ, 0.2.xlsx
+++ b/tests/test1/d40/ЛМ, 0.2.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.004796699999999987</v>
+        <v>0.002617400000000103</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.003487999999997271</v>
+        <v>0.00287750000000031</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.003297199999998668</v>
+        <v>0.002660200000001112</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002959099999998216</v>
+        <v>0.004590699999999615</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.004889199999993821</v>
+        <v>0.002770800000000406</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002355000000001439</v>
+        <v>0.002223299999998929</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002346400000000415</v>
+        <v>0.002024600000000376</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002147300000004293</v>
+        <v>0.001726999999998924</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.006003700000000833</v>
+        <v>0.005509899999999845</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001846600000000365</v>
+        <v>0.001754099999999426</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002103800000000433</v>
+        <v>0.004727400000000159</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002073000000002878</v>
+        <v>0.002046200000000553</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002102399999998283</v>
+        <v>0.002007300000000711</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002060700000001248</v>
+        <v>0.002107900000000384</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.003203800000001422</v>
+        <v>0.002590200000000209</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002074800000002597</v>
+        <v>0.002120299999999631</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.003533199999999681</v>
+        <v>0.002034799999998782</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002312099999997486</v>
+        <v>0.003096099999998714</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002653999999999712</v>
+        <v>0.002449600000000274</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001865899999998533</v>
+        <v>0.001755099999998677</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002890099999994789</v>
+        <v>0.002848500000000698</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001848100000003683</v>
+        <v>0.001885299999999646</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002137700000005793</v>
+        <v>0.004050600000001126</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.004248200000006364</v>
+        <v>0.007352199999999698</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002090699999996559</v>
+        <v>0.003873499999999197</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.003234300000002577</v>
+        <v>0.003247400000001122</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.00234159999999406</v>
+        <v>0.002915599999999685</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002558600000000411</v>
+        <v>0.005993100000001306</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002379999999995164</v>
+        <v>0.004404400000000308</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002069699999999841</v>
+        <v>0.002101100000000855</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002403999999998518</v>
+        <v>0.005005300000000545</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002557600000002935</v>
+        <v>0.004163000000000139</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.00334670000000159</v>
+        <v>0.002316600000000335</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002121000000002482</v>
+        <v>0.002188999999999552</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.00191130000000328</v>
+        <v>0.002793300000000443</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002462199999996528</v>
+        <v>0.003203100000000347</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002369200000003957</v>
+        <v>0.003662900000000135</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002213799999999821</v>
+        <v>0.004079299999999009</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002594399999999553</v>
+        <v>0.002607300000001089</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002620700000001364</v>
+        <v>0.002651800000000648</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002077299999996285</v>
+        <v>0.006242699999999601</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.003812799999998617</v>
+        <v>0.003721699999999828</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.00257270000000176</v>
+        <v>0.002657300000000973</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001820799999997291</v>
+        <v>0.003718100000000391</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002128999999996495</v>
+        <v>0.004595000000000127</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001826799999996354</v>
+        <v>0.002669000000000921</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002342299999995134</v>
+        <v>0.002484400000000164</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002120600000004913</v>
+        <v>0.005280900000000699</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.003646699999997338</v>
+        <v>0.003747200000001172</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001826000000001216</v>
+        <v>0.003402400000000583</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002145500000004574</v>
+        <v>0.004433399999999921</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002133499999999344</v>
+        <v>0.006307900000001254</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.00208380000000119</v>
+        <v>0.007147299999999746</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.003604500000001565</v>
+        <v>0.008792299999999642</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002711100000006184</v>
+        <v>0.006384300000000565</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001991300000000251</v>
+        <v>0.003730300000000852</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.004025299999995013</v>
+        <v>0.003008600000001138</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.003534000000001924</v>
+        <v>0.002134800000000325</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002390500000004181</v>
+        <v>0.006213199999999475</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.00457569999999663</v>
+        <v>0.002276000000000167</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.001887400000001094</v>
+        <v>0.002825399999998979</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.004589299999999241</v>
+        <v>0.006281900000001173</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001861900000001526</v>
+        <v>0.002611500000000433</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.004658800000001406</v>
+        <v>0.003423099999999124</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002339199999994435</v>
+        <v>0.005182400000000698</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.00419910000000101</v>
+        <v>0.001957700000000173</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002095199999999409</v>
+        <v>0.004316999999998572</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004963000000003603</v>
+        <v>0.004987899999999712</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002110999999999308</v>
+        <v>0.002064999999999984</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.004476199999999153</v>
+        <v>0.002170599999999467</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002094499999998334</v>
+        <v>0.001990499999999784</v>
       </c>
       <c r="Y72" t="n">
         <v>8</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.003938899999994305</v>
+        <v>0.001722400000000235</v>
       </c>
       <c r="Y73" t="n">
         <v>7</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001862600000002601</v>
+        <v>0.002555599999999103</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.004935699999997212</v>
+        <v>0.002387600000000489</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002316799999995567</v>
+        <v>0.002630200000000471</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.003770599999995738</v>
+        <v>0.002019699999999958</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002721799999996222</v>
+        <v>0.002422600000000941</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002075599999997735</v>
+        <v>0.001975200000000399</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001864500000003488</v>
+        <v>0.001726100000000841</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002374999999993577</v>
+        <v>0.003610099999999505</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002636899999998832</v>
+        <v>0.002474299999999374</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002347800000002565</v>
+        <v>0.002157399999999754</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.003786599999997975</v>
+        <v>0.002302000000000248</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.00237239999999872</v>
+        <v>0.002198799999998613</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001942000000006772</v>
+        <v>0.001841999999999899</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002646400000003268</v>
+        <v>0.002415100000000336</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002086399999996047</v>
+        <v>0.003881600000001484</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002864099999996483</v>
+        <v>0.002637699999999299</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002847300000006214</v>
+        <v>0.002423800000000753</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002112900000000195</v>
+        <v>0.002002600000000854</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.00225329999999957</v>
+        <v>0.001971900000000915</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.003631800000000851</v>
+        <v>0.001823200000000469</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002318199999997717</v>
+        <v>0.00246789999999919</v>
       </c>
       <c r="Y94" t="n">
         <v>9</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002540800000005561</v>
+        <v>0.004135299999999731</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002778999999996756</v>
+        <v>0.002433499999998645</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.001943300000000647</v>
+        <v>0.001765899999998766</v>
       </c>
       <c r="Y97" t="n">
         <v>7</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002410799999999824</v>
+        <v>0.002345599999999948</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002584900000002222</v>
+        <v>0.002442999999999529</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.00284889999999649</v>
+        <v>0.002293299999999832</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002508100000000013</v>
+        <v>0.00220969999999987</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d40/ЛМ, 0.2.xlsx
+++ b/tests/test1/d40/ЛМ, 0.2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002617400000000103</v>
+        <v>0.002741799999995465</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.00287750000000031</v>
+        <v>0.005129499999995346</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002660200000001112</v>
+        <v>0.00256819999999891</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004590699999999615</v>
+        <v>0.005215999999990117</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002770800000000406</v>
+        <v>0.002182599999997592</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002223299999998929</v>
+        <v>0.003613700000002495</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002024600000000376</v>
+        <v>0.00238849999999502</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001726999999998924</v>
+        <v>0.0035028000000068</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.005509899999999845</v>
+        <v>0.002520899999993276</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001754099999999426</v>
+        <v>0.001921799999990981</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.004727400000000159</v>
+        <v>0.0022687000000019</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002046200000000553</v>
+        <v>0.002258599999990452</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002007300000000711</v>
+        <v>0.002387499999997544</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002107900000000384</v>
+        <v>0.002164199999995731</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002590200000000209</v>
+        <v>0.002780299999997737</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002120299999999631</v>
+        <v>0.002169600000001992</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002034799999998782</v>
+        <v>0.002247199999999339</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.003096099999998714</v>
+        <v>0.002475700000005077</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002449600000000274</v>
+        <v>0.004536200000003987</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001755099999998677</v>
+        <v>0.001955899999998678</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002848500000000698</v>
+        <v>0.004866599999999721</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001885299999999646</v>
+        <v>0.001882300000005444</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.004050600000001126</v>
+        <v>0.003928500000000668</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.007352199999999698</v>
+        <v>0.00296120000000144</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.003873499999999197</v>
+        <v>0.003604300000006333</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.003247400000001122</v>
+        <v>0.002307899999991037</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002915599999999685</v>
+        <v>0.004791100000005599</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.005993100000001306</v>
+        <v>0.003823300000007634</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.004404400000000308</v>
+        <v>0.002975900000009801</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002101100000000855</v>
+        <v>0.004476699999997891</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.005005300000000545</v>
+        <v>0.002763999999999101</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.004163000000000139</v>
+        <v>0.003010100000011562</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002316600000000335</v>
+        <v>0.002166900000005967</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002188999999999552</v>
+        <v>0.0035251000000045</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002793300000000443</v>
+        <v>0.001970499999998765</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.003203100000000347</v>
+        <v>0.004463599999994017</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.003662900000000135</v>
+        <v>0.003429600000004029</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.004079299999999009</v>
+        <v>0.002458699999991154</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002607300000001089</v>
+        <v>0.002684400000006804</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002651800000000648</v>
+        <v>0.003810999999998899</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.006242699999999601</v>
+        <v>0.002205399999994029</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.003721699999999828</v>
+        <v>0.003430700000009779</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002657300000000973</v>
+        <v>0.00266199999998662</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.003718100000000391</v>
+        <v>0.003784699999997088</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.004595000000000127</v>
+        <v>0.002220300000004727</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002669000000000921</v>
+        <v>0.001915300000007392</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002484400000000164</v>
+        <v>0.002507399999998938</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.005280900000000699</v>
+        <v>0.002203699999995479</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.003747200000001172</v>
+        <v>0.001979999999988991</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.003402400000000583</v>
+        <v>0.001923700000006079</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.004433399999999921</v>
+        <v>0.003940499999998792</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.006307900000001254</v>
+        <v>0.002208899999999403</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.007147299999999746</v>
+        <v>0.00214270000000738</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.008792299999999642</v>
+        <v>0.002211399999993091</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.006384300000000565</v>
+        <v>0.002410199999999918</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.003730300000000852</v>
+        <v>0.001992200000003663</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.003008600000001138</v>
+        <v>0.001913600000008842</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002134800000000325</v>
+        <v>0.003686000000001854</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.006213199999999475</v>
+        <v>0.002415099999993231</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002276000000000167</v>
+        <v>0.00266340000000298</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002825399999998979</v>
+        <v>0.001952399999993304</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.006281900000001173</v>
+        <v>0.002172999999999092</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.002611500000000433</v>
+        <v>0.001936499999999342</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.003423099999999124</v>
+        <v>0.002401000000006093</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.005182400000000698</v>
+        <v>0.004266100000009487</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001957700000000173</v>
+        <v>0.002274999999997362</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.004316999999998572</v>
+        <v>0.003965099999987842</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004987899999999712</v>
+        <v>0.002942399999994905</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002064999999999984</v>
+        <v>0.002159300000002418</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002170599999999467</v>
+        <v>0.002539799999993875</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.001990499999999784</v>
+        <v>0.002227500000003602</v>
       </c>
       <c r="Y72" t="n">
         <v>8</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.001722400000000235</v>
+        <v>0.001996499999989965</v>
       </c>
       <c r="Y73" t="n">
         <v>7</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002555599999999103</v>
+        <v>0.001935000000003129</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002387600000000489</v>
+        <v>0.004490000000004102</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002630200000000471</v>
+        <v>0.002431100000009678</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002019699999999958</v>
+        <v>0.003485499999996478</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002422600000000941</v>
+        <v>0.002712900000005902</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.001975200000000399</v>
+        <v>0.002200700000003053</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001726100000000841</v>
+        <v>0.002045699999996486</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003610099999999505</v>
+        <v>0.002460300000009852</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002474299999999374</v>
+        <v>0.00277189999999905</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002157399999999754</v>
+        <v>0.002458799999999428</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002302000000000248</v>
+        <v>0.003389900000001944</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002198799999998613</v>
+        <v>0.002573099999992223</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001841999999999899</v>
+        <v>0.003785500000006436</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002415100000000336</v>
+        <v>0.002808999999999173</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003881600000001484</v>
+        <v>0.002390900000008855</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002637699999999299</v>
+        <v>0.003123000000002207</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002423800000000753</v>
+        <v>0.002728300000001127</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002002600000000854</v>
+        <v>0.002314599999991174</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.001971900000000915</v>
+        <v>0.00222859999999514</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.001823200000000469</v>
+        <v>0.002207699999999591</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.00246789999999919</v>
+        <v>0.002468300000003865</v>
       </c>
       <c r="Y94" t="n">
         <v>9</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.004135299999999731</v>
+        <v>0.00458629999999971</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002433499999998645</v>
+        <v>0.002733200000008651</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.001765899999998766</v>
+        <v>0.003730400000009126</v>
       </c>
       <c r="Y97" t="n">
         <v>7</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002345599999999948</v>
+        <v>0.002506100000005063</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002442999999999529</v>
+        <v>0.003064399999999523</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002293299999999832</v>
+        <v>0.002506999999994264</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.00220969999999987</v>
+        <v>0.002427100000005566</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d40/ЛМ, 0.2.xlsx
+++ b/tests/test1/d40/ЛМ, 0.2.xlsx
@@ -582,13 +582,13 @@
         <v>359.9539334770602</v>
       </c>
       <c r="F2" t="n">
-        <v>40.37256598784519</v>
+        <v>40.37256598784517</v>
       </c>
       <c r="G2" t="n">
-        <v>97.80279959978918</v>
+        <v>97.80279959978922</v>
       </c>
       <c r="H2" t="n">
-        <v>11.813026904485</v>
+        <v>11.81302690448499</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>22.96306074649472</v>
       </c>
       <c r="P2" t="n">
-        <v>38.91544333971093</v>
+        <v>38.91544333971089</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02070064359789601</v>
+        <v>0.02070064359789656</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5104705435671517</v>
+        <v>0.5104705435671466</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2366196457659304</v>
+        <v>0.2366196457659291</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1699684223716701</v>
+        <v>0.1699684223716773</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03994675209048119</v>
+        <v>0.03994675209048135</v>
       </c>
       <c r="V2" t="n">
-        <v>0.113811959990918</v>
+        <v>0.1138119599909135</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002741799999995465</v>
+        <v>0.002155799999997043</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -667,10 +667,10 @@
         <v>39.39627706043616</v>
       </c>
       <c r="G3" t="n">
-        <v>75.39681489456727</v>
+        <v>75.39681489456723</v>
       </c>
       <c r="H3" t="n">
-        <v>11.36047945051275</v>
+        <v>11.36047945051276</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,22 +697,22 @@
         <v>42.70544672070807</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02028942060421773</v>
+        <v>0.02028942060421753</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4932503643373141</v>
+        <v>0.4932503643372895</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2240644980288866</v>
+        <v>0.2240644980288759</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2391712285376192</v>
+        <v>0.2391712285376143</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03976161452376488</v>
+        <v>0.03976161452376487</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1106998291835926</v>
+        <v>0.1106998291835898</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.005129499999995346</v>
+        <v>0.002100800000000902</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -749,10 +749,10 @@
         <v>40.43272396930305</v>
       </c>
       <c r="G4" t="n">
-        <v>89.14959734604979</v>
+        <v>89.14959734604993</v>
       </c>
       <c r="H4" t="n">
-        <v>3.216231978830895</v>
+        <v>3.216231978830893</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,25 +776,25 @@
         <v>7.590643887476492</v>
       </c>
       <c r="P4" t="n">
-        <v>38.20845514765178</v>
+        <v>38.20845514765175</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01877922856886075</v>
+        <v>0.01877922856886068</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4048964022451123</v>
+        <v>0.404896402245101</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09642539387262235</v>
+        <v>0.09642539387261884</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5071631129524816</v>
+        <v>0.5071631129524793</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04219619218025406</v>
+        <v>0.04219619218025402</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3603122309215077</v>
+        <v>0.3603122309215131</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.00256819999999891</v>
+        <v>0.00158739999999824</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -828,13 +828,13 @@
         <v>0.04662129851007644</v>
       </c>
       <c r="F5" t="n">
-        <v>39.35013133726619</v>
+        <v>39.35013133726621</v>
       </c>
       <c r="G5" t="n">
-        <v>100.7135540914673</v>
+        <v>100.7135540914672</v>
       </c>
       <c r="H5" t="n">
-        <v>11.17380787046413</v>
+        <v>11.17380787046414</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -858,25 +858,25 @@
         <v>22.77678324970467</v>
       </c>
       <c r="P5" t="n">
-        <v>37.13705953713348</v>
+        <v>37.1370595371335</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01970276818293664</v>
+        <v>0.0197027681829347</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4761916606396341</v>
+        <v>0.4761916606395457</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2185305562627991</v>
+        <v>0.2185305562627534</v>
       </c>
       <c r="T5" t="n">
-        <v>0.16372870512491</v>
+        <v>0.1637287051248975</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04176574991097192</v>
+        <v>0.04176574991097203</v>
       </c>
       <c r="V5" t="n">
-        <v>0.160574023091173</v>
+        <v>0.1605740230911691</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.005215999999990117</v>
+        <v>0.001917600000005848</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -910,13 +910,13 @@
         <v>0.002096437865429035</v>
       </c>
       <c r="F6" t="n">
-        <v>40.12207688883998</v>
+        <v>40.12207688883997</v>
       </c>
       <c r="G6" t="n">
         <v>174.5572254453503</v>
       </c>
       <c r="H6" t="n">
-        <v>9.979140688188554</v>
+        <v>9.979140688188547</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>25.68860600261295</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01572188365802539</v>
+        <v>0.01572188365802563</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3453448804944109</v>
+        <v>0.3453448804944121</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05308464718144602</v>
+        <v>0.05308464718144675</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5175997453688255</v>
+        <v>0.5175997453688378</v>
       </c>
       <c r="U6" t="n">
         <v>0.03763152074510481</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1529551895471501</v>
+        <v>0.1529551895471483</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002182599999997592</v>
+        <v>0.002255699999999194</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -992,7 +992,7 @@
         <v>359.9686945056435</v>
       </c>
       <c r="F7" t="n">
-        <v>40.46204787014382</v>
+        <v>40.46204787014384</v>
       </c>
       <c r="G7" t="n">
         <v>39.61165005787242</v>
@@ -1019,28 +1019,28 @@
         <v>51.07363174201134</v>
       </c>
       <c r="O7" t="n">
-        <v>13.07515186376465</v>
+        <v>13.07515186376463</v>
       </c>
       <c r="P7" t="n">
-        <v>52.0292757914524</v>
+        <v>52.02927579145242</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02131664044985774</v>
+        <v>0.02131664044985797</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5332357829382165</v>
+        <v>0.5332357829381944</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2017753319959578</v>
+        <v>0.2017753319959519</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4447359238067843</v>
+        <v>0.4447359238067875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03836635002512416</v>
+        <v>0.03836635002512421</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1261662579913519</v>
+        <v>0.1261662579913465</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.003613700000002495</v>
+        <v>0.001816200000000379</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>162.4055860237434</v>
       </c>
       <c r="H8" t="n">
-        <v>7.360801917083595</v>
+        <v>7.360801917083585</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>29.73534467829719</v>
       </c>
       <c r="O8" t="n">
-        <v>7.601729384078379</v>
+        <v>7.601729384078366</v>
       </c>
       <c r="P8" t="n">
-        <v>29.08253374595427</v>
+        <v>29.08253374595428</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01728605815970816</v>
+        <v>0.01728605815970737</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3286110660912411</v>
+        <v>0.3286110660912475</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07512334552458931</v>
+        <v>0.07512334552458452</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4203223608426446</v>
+        <v>0.4203223608426235</v>
       </c>
       <c r="U8" t="n">
         <v>0.03715112296107578</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2161184981325558</v>
+        <v>0.2161184981325516</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.00238849999999502</v>
+        <v>0.001614799999998695</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1156,7 +1156,7 @@
         <v>0.02240920331812346</v>
       </c>
       <c r="F9" t="n">
-        <v>39.13875206562889</v>
+        <v>39.13875206562888</v>
       </c>
       <c r="G9" t="n">
         <v>13.71392823767416</v>
@@ -1189,19 +1189,19 @@
         <v>50.37025212872494</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01888856735242777</v>
+        <v>0.01888856735242737</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5205522663174375</v>
+        <v>0.5205522663174346</v>
       </c>
       <c r="S9" t="n">
-        <v>0.09506323347465456</v>
+        <v>0.09506323347465222</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8025024841973064</v>
+        <v>0.8025024841972835</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0379456225048199</v>
+        <v>0.03794562250481998</v>
       </c>
       <c r="V9" t="n">
         <v>0.1935295953443819</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.0035028000000068</v>
+        <v>0.001419099999999673</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1271,22 +1271,22 @@
         <v>23.07969180529244</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01889524439831698</v>
+        <v>0.0188952443983163</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3926501768277806</v>
+        <v>0.392650176827728</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1330934998071826</v>
+        <v>0.1330934998071678</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1306108198865351</v>
+        <v>0.1306108198865332</v>
       </c>
       <c r="U10" t="n">
         <v>0.04377842240923396</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0532001223956288</v>
+        <v>0.0532001223956285</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002520899999993276</v>
+        <v>0.001898500000002912</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1320,13 +1320,13 @@
         <v>359.9923733495078</v>
       </c>
       <c r="F11" t="n">
-        <v>40.46130475967398</v>
+        <v>40.46130475967397</v>
       </c>
       <c r="G11" t="n">
         <v>2.014235457947323</v>
       </c>
       <c r="H11" t="n">
-        <v>8.553989399712194</v>
+        <v>8.553989399712199</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1353,22 +1353,22 @@
         <v>48.12758101099202</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01600405875354921</v>
+        <v>0.01600405875354931</v>
       </c>
       <c r="R11" t="n">
-        <v>0.855345984833396</v>
+        <v>0.8553459848334033</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05188020354587008</v>
+        <v>0.05188020354587055</v>
       </c>
       <c r="T11" t="n">
-        <v>1.345891609986574</v>
+        <v>1.345891609986595</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04188055899943319</v>
+        <v>0.04188055899943325</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1387169758575608</v>
+        <v>0.1387169758575593</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001921799999990981</v>
+        <v>0.001521199999999112</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1408,7 +1408,7 @@
         <v>139.2082040084371</v>
       </c>
       <c r="H12" t="n">
-        <v>3.301561064629256</v>
+        <v>3.301561064629252</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1429,28 +1429,28 @@
         <v>34.65047640795692</v>
       </c>
       <c r="O12" t="n">
-        <v>6.207562053395939</v>
+        <v>6.207562053395927</v>
       </c>
       <c r="P12" t="n">
-        <v>34.65640933732775</v>
+        <v>34.65640933732776</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01762943162908341</v>
+        <v>0.01762943162908351</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3859424869493189</v>
+        <v>0.3859424869493168</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07658281150076812</v>
+        <v>0.07658281150076851</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5462209445778211</v>
+        <v>0.546220944577824</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03558309228299351</v>
+        <v>0.03558309228299358</v>
       </c>
       <c r="V12" t="n">
-        <v>0.05418805940566311</v>
+        <v>0.0541880594056593</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.0022687000000019</v>
+        <v>0.001672599999999136</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1487,10 +1487,10 @@
         <v>39.1401779853035</v>
       </c>
       <c r="G13" t="n">
-        <v>31.80458238505773</v>
+        <v>31.80458238505775</v>
       </c>
       <c r="H13" t="n">
-        <v>3.09641007132883</v>
+        <v>3.096410071328826</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1511,28 +1511,28 @@
         <v>40.78812565334459</v>
       </c>
       <c r="O13" t="n">
-        <v>4.518285318780875</v>
+        <v>4.518285318780888</v>
       </c>
       <c r="P13" t="n">
-        <v>39.80530300604756</v>
+        <v>39.80530300604755</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01718990546099584</v>
+        <v>0.01718990546099613</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4658138036466074</v>
+        <v>0.4658138036466128</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06978967082734382</v>
+        <v>0.06978967082734444</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7288194742116428</v>
+        <v>0.72881947421166</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03852107646400295</v>
+        <v>0.03852107646400301</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1762452599787879</v>
+        <v>0.1762452599787905</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002258599999990452</v>
+        <v>0.001772500000001287</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1566,7 +1566,7 @@
         <v>0.0186899123756137</v>
       </c>
       <c r="F14" t="n">
-        <v>40.7132985102139</v>
+        <v>40.71329851021391</v>
       </c>
       <c r="G14" t="n">
         <v>27.41503291783827</v>
@@ -1596,25 +1596,25 @@
         <v>8.900901518862963</v>
       </c>
       <c r="P14" t="n">
-        <v>51.93158397318224</v>
+        <v>51.93158397318225</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02077325413676713</v>
+        <v>0.02077325413676672</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5139778153436274</v>
+        <v>0.5139778153436295</v>
       </c>
       <c r="S14" t="n">
-        <v>0.148429148990787</v>
+        <v>0.1484291489907873</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5837990467832866</v>
+        <v>0.5837990467832761</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04027803030102176</v>
+        <v>0.04027803030102173</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1675857053147405</v>
+        <v>0.1675857053147415</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002387499999997544</v>
+        <v>0.001601600000000758</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1654,7 +1654,7 @@
         <v>139.2145059765415</v>
       </c>
       <c r="H15" t="n">
-        <v>5.831387530326722</v>
+        <v>5.831387530326719</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1681,22 +1681,22 @@
         <v>32.75129188372246</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01858078250123513</v>
+        <v>0.01858078250123497</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3650421373368071</v>
+        <v>0.3650421373367911</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1021111926604954</v>
+        <v>0.1021111926604914</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3559824466721522</v>
+        <v>0.355982446672149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03508525679165754</v>
+        <v>0.03508525679165757</v>
       </c>
       <c r="V15" t="n">
-        <v>0.04593670388273341</v>
+        <v>0.04593670388273564</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002164199999995731</v>
+        <v>0.001651999999999987</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1760,25 +1760,25 @@
         <v>23.37979618129368</v>
       </c>
       <c r="P16" t="n">
-        <v>39.96914454558637</v>
+        <v>39.96914454558636</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02024889192416839</v>
+        <v>0.02024889192417107</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5094914217579264</v>
+        <v>0.5094914217581188</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2449424577433495</v>
+        <v>0.2449424577434455</v>
       </c>
       <c r="T16" t="n">
-        <v>0.174369888375637</v>
+        <v>0.1743698883756578</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04155076164617325</v>
+        <v>0.04155076164617318</v>
       </c>
       <c r="V16" t="n">
-        <v>0.02201224936975298</v>
+        <v>0.0220122493697543</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002780299999997737</v>
+        <v>0.002684500000000867</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1815,10 +1815,10 @@
         <v>39.90954947397112</v>
       </c>
       <c r="G17" t="n">
-        <v>153.2944488767433</v>
+        <v>153.2944488767432</v>
       </c>
       <c r="H17" t="n">
-        <v>5.183697956443825</v>
+        <v>5.183697956443817</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1842,25 +1842,25 @@
         <v>7.136768536560473</v>
       </c>
       <c r="P17" t="n">
-        <v>31.9840956585864</v>
+        <v>31.98409565858641</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01757239313709837</v>
+        <v>0.01757239313709857</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3538234426310052</v>
+        <v>0.3538234426310083</v>
       </c>
       <c r="S17" t="n">
-        <v>0.07807220132604815</v>
+        <v>0.07807220132605092</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4683774948299669</v>
+        <v>0.4683774948299724</v>
       </c>
       <c r="U17" t="n">
         <v>0.04006424368953417</v>
       </c>
       <c r="V17" t="n">
-        <v>0.03949649916595811</v>
+        <v>0.03949649916595226</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002169600000001992</v>
+        <v>0.001613399999996545</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1897,10 +1897,10 @@
         <v>39.11742940532938</v>
       </c>
       <c r="G18" t="n">
-        <v>40.9545632699986</v>
+        <v>40.95456326999864</v>
       </c>
       <c r="H18" t="n">
-        <v>8.773151136221285</v>
+        <v>8.773151136221276</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>10.29712154314361</v>
       </c>
       <c r="P18" t="n">
-        <v>45.17962093153172</v>
+        <v>45.17962093153171</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01962936557277261</v>
+        <v>0.01962936557277211</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4439988387453893</v>
+        <v>0.4439988387453818</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1389943427256374</v>
+        <v>0.1389943427256307</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4518281461443285</v>
+        <v>0.4518281461443121</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0341251230794539</v>
+        <v>0.03412512307945394</v>
       </c>
       <c r="V18" t="n">
-        <v>0.2129880911352285</v>
+        <v>0.2129880911352328</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002247199999999339</v>
+        <v>0.0016436000000013</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1976,10 +1976,10 @@
         <v>359.9640426983013</v>
       </c>
       <c r="F19" t="n">
-        <v>39.89064299764233</v>
+        <v>39.89064299764234</v>
       </c>
       <c r="G19" t="n">
-        <v>51.24818077478812</v>
+        <v>51.24818077478815</v>
       </c>
       <c r="H19" t="n">
         <v>9.715463915196072</v>
@@ -2006,25 +2006,25 @@
         <v>12.93563766281949</v>
       </c>
       <c r="P19" t="n">
-        <v>45.73251886483067</v>
+        <v>45.73251886483068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02043595077966321</v>
+        <v>0.02043595077966363</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4766546217336246</v>
+        <v>0.4766546217336724</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1712002446399834</v>
+        <v>0.1712002446400002</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3829809951884801</v>
+        <v>0.382980995188494</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04121452726751179</v>
+        <v>0.04121452726751178</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1580195890896872</v>
+        <v>0.1580195890896867</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002475700000005077</v>
+        <v>0.001743799999999851</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2064,7 +2064,7 @@
         <v>114.6167339284762</v>
       </c>
       <c r="H20" t="n">
-        <v>9.225490007553125</v>
+        <v>9.225490007553123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2091,22 +2091,22 @@
         <v>35.15781312736858</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02024348923404197</v>
+        <v>0.02024348923404158</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4574092855240291</v>
+        <v>0.4574092855239449</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1775798580204698</v>
+        <v>0.177579858020446</v>
       </c>
       <c r="T20" t="n">
         <v>0.1974075173355459</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04084426002675672</v>
+        <v>0.04084426002675674</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1634190548887219</v>
+        <v>0.1634190548887214</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.004536200000003987</v>
+        <v>0.002119300000003932</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2140,13 +2140,13 @@
         <v>0.004136000326419672</v>
       </c>
       <c r="F21" t="n">
-        <v>39.75465136027579</v>
+        <v>39.75465136027578</v>
       </c>
       <c r="G21" t="n">
         <v>17.17613920851317</v>
       </c>
       <c r="H21" t="n">
-        <v>12.4220285982028</v>
+        <v>12.42202859820279</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2170,25 +2170,25 @@
         <v>6.193057345304003</v>
       </c>
       <c r="P21" t="n">
-        <v>51.68152856259489</v>
+        <v>51.68152856259488</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01966948510330121</v>
+        <v>0.01966948510330162</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5117646411186927</v>
+        <v>0.5117646411186916</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1117108710011096</v>
+        <v>0.111710871001112</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7327355471647021</v>
+        <v>0.7327355471647231</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03859407004111144</v>
+        <v>0.03859407004111141</v>
       </c>
       <c r="V21" t="n">
-        <v>0.07235088576381907</v>
+        <v>0.07235088576381825</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001955899999998678</v>
+        <v>0.001769099999997081</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2222,13 +2222,13 @@
         <v>0.02492636475557644</v>
       </c>
       <c r="F22" t="n">
-        <v>39.35523305889178</v>
+        <v>39.35523305889173</v>
       </c>
       <c r="G22" t="n">
         <v>106.5498369207111</v>
       </c>
       <c r="H22" t="n">
-        <v>13.46190936241888</v>
+        <v>13.46190936241886</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2252,25 +2252,25 @@
         <v>27.41998327323337</v>
       </c>
       <c r="P22" t="n">
-        <v>36.20475934639674</v>
+        <v>36.20475934639668</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01982626756993806</v>
+        <v>0.01982626756994017</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5000016281872199</v>
+        <v>0.5000016281873104</v>
       </c>
       <c r="S22" t="n">
-        <v>0.2518873553945531</v>
+        <v>0.2518873553946044</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1209070190696219</v>
+        <v>0.1209070190696264</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03768815941284073</v>
+        <v>0.03768815941284077</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1168407578708679</v>
+        <v>0.1168407578708764</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.004866599999999721</v>
+        <v>0.002828000000000941</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2310,7 +2310,7 @@
         <v>8.839474197469551</v>
       </c>
       <c r="H23" t="n">
-        <v>7.312846385478232</v>
+        <v>7.312846385478238</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2334,25 +2334,25 @@
         <v>3.060440891566865</v>
       </c>
       <c r="P23" t="n">
-        <v>46.82097029671414</v>
+        <v>46.82097029671415</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01742684493530266</v>
+        <v>0.01742684493530272</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6461588810767206</v>
+        <v>0.6461588810767294</v>
       </c>
       <c r="S23" t="n">
         <v>0.06627249907422447</v>
       </c>
       <c r="T23" t="n">
-        <v>1.043972552371248</v>
+        <v>1.043972552371258</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04051765013376239</v>
+        <v>0.04051765013376238</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4079961961261393</v>
+        <v>0.4079961961261422</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001882300000005444</v>
+        <v>0.001598500000000058</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2389,10 +2389,10 @@
         <v>40.6115749540458</v>
       </c>
       <c r="G24" t="n">
-        <v>39.71787838036371</v>
+        <v>39.7178783803637</v>
       </c>
       <c r="H24" t="n">
-        <v>8.400332625172938</v>
+        <v>8.400332625172942</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,25 +2416,25 @@
         <v>9.449138074431531</v>
       </c>
       <c r="P24" t="n">
-        <v>46.37833131126793</v>
+        <v>46.37833131126794</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02025113968986416</v>
+        <v>0.02025113968986427</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4719846097159737</v>
+        <v>0.4719846097159688</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1373650635903792</v>
+        <v>0.1373650635903786</v>
       </c>
       <c r="T24" t="n">
         <v>0.500521612992784</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04412773801552562</v>
+        <v>0.04412773801552561</v>
       </c>
       <c r="V24" t="n">
-        <v>0.1710258477440039</v>
+        <v>0.1710258477440034</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.003928500000000668</v>
+        <v>0.001610299999995846</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2468,13 +2468,13 @@
         <v>359.9862512568329</v>
       </c>
       <c r="F25" t="n">
-        <v>39.81934267615769</v>
+        <v>39.8193426761577</v>
       </c>
       <c r="G25" t="n">
         <v>92.94092947993435</v>
       </c>
       <c r="H25" t="n">
-        <v>14.33140984495606</v>
+        <v>14.33140984495607</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2498,25 +2498,25 @@
         <v>26.78626328281263</v>
       </c>
       <c r="P25" t="n">
-        <v>40.6865425379691</v>
+        <v>40.68654253796911</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02059458807638146</v>
+        <v>0.02059458807638232</v>
       </c>
       <c r="R25" t="n">
-        <v>0.5351258778721562</v>
+        <v>0.5351258778722205</v>
       </c>
       <c r="S25" t="n">
-        <v>0.2834648551763044</v>
+        <v>0.2834648551763403</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1469360522395748</v>
+        <v>0.1469360522395794</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03664868640549419</v>
+        <v>0.03664868640549407</v>
       </c>
       <c r="V25" t="n">
-        <v>0.02122011621957905</v>
+        <v>0.02122011621957785</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.00296120000000144</v>
+        <v>0.004176499999999805</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2556,7 +2556,7 @@
         <v>172.0571559304131</v>
       </c>
       <c r="H26" t="n">
-        <v>10.72628128045011</v>
+        <v>10.72628128045012</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2583,22 +2583,22 @@
         <v>24.37403620117598</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01611328991729849</v>
+        <v>0.01611328991729837</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2953015871497801</v>
+        <v>0.2953015871497779</v>
       </c>
       <c r="S26" t="n">
-        <v>0.06077774938127881</v>
+        <v>0.06077774938127699</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4065461168517552</v>
+        <v>0.4065461168517528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03889468693745732</v>
+        <v>0.0388946869374573</v>
       </c>
       <c r="V26" t="n">
-        <v>0.1927463347772066</v>
+        <v>0.1927463347772042</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.003604300000006333</v>
+        <v>0.001742299999996533</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2665,22 +2665,22 @@
         <v>27.46582028767989</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01851588396635359</v>
+        <v>0.01851588396635524</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3503476945614546</v>
+        <v>0.3503476945614825</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1048767009996605</v>
+        <v>0.1048767009996797</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2519419118847527</v>
+        <v>0.2519419118847641</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04273408385461212</v>
+        <v>0.04273408385461222</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0699499269845671</v>
+        <v>0.06994992698456666</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002307899999991037</v>
+        <v>0.00170310000000029</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2714,13 +2714,13 @@
         <v>0.01371530401241029</v>
       </c>
       <c r="F28" t="n">
-        <v>40.05628098192329</v>
+        <v>40.05628098192328</v>
       </c>
       <c r="G28" t="n">
         <v>56.63614151559914</v>
       </c>
       <c r="H28" t="n">
-        <v>9.04754525165963</v>
+        <v>9.047545251659626</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>13.282400803858</v>
       </c>
       <c r="P28" t="n">
-        <v>44.60397714004461</v>
+        <v>44.60397714004459</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02031700820186291</v>
+        <v>0.0203170082018638</v>
       </c>
       <c r="R28" t="n">
-        <v>0.4737273579840933</v>
+        <v>0.4737273579841227</v>
       </c>
       <c r="S28" t="n">
-        <v>0.1705085110280193</v>
+        <v>0.1705085110280378</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3655074071944595</v>
+        <v>0.3655074071944838</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03840646188776389</v>
+        <v>0.03840646188776393</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0950151589829063</v>
+        <v>0.0950151589829078</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.004791100000005599</v>
+        <v>0.002122599999999863</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,13 +2796,13 @@
         <v>359.9565792118898</v>
       </c>
       <c r="F29" t="n">
-        <v>40.13218175354219</v>
+        <v>40.1321817535422</v>
       </c>
       <c r="G29" t="n">
         <v>75.88599721184332</v>
       </c>
       <c r="H29" t="n">
-        <v>12.98662851835704</v>
+        <v>12.98662851835705</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2823,28 +2823,28 @@
         <v>43.97582692503995</v>
       </c>
       <c r="O29" t="n">
-        <v>21.47448906587481</v>
+        <v>21.47448906587482</v>
       </c>
       <c r="P29" t="n">
-        <v>44.39807152778552</v>
+        <v>44.39807152778553</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02103200076891925</v>
+        <v>0.02103200076891802</v>
       </c>
       <c r="R29" t="n">
-        <v>0.5319654669778709</v>
+        <v>0.5319654669778503</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2571600093397988</v>
+        <v>0.2571600093397812</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2283679532274184</v>
+        <v>0.2283679532274027</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04140429454701576</v>
+        <v>0.0414042945470157</v>
       </c>
       <c r="V29" t="n">
-        <v>0.08091708569155534</v>
+        <v>0.08091708569156411</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003823300000007634</v>
+        <v>0.002064300000000685</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>359.9964971783257</v>
       </c>
       <c r="F30" t="n">
-        <v>39.95693132400228</v>
+        <v>39.95693132400226</v>
       </c>
       <c r="G30" t="n">
-        <v>130.8930607229865</v>
+        <v>130.8930607229866</v>
       </c>
       <c r="H30" t="n">
-        <v>9.704089825915807</v>
+        <v>9.704089825915798</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2908,25 +2908,25 @@
         <v>18.54772092075032</v>
       </c>
       <c r="P30" t="n">
-        <v>31.34534555513797</v>
+        <v>31.34534555513795</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01936268204954901</v>
+        <v>0.01936268204954973</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4200661749158953</v>
+        <v>0.4200661749159315</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1566725624696049</v>
+        <v>0.1566725624696194</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1774143814030676</v>
+        <v>0.1774143814030707</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03833577151446546</v>
+        <v>0.03833577151446552</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01931648817245425</v>
+        <v>0.01931648817245417</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002975900000009801</v>
+        <v>0.001782300000002124</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -2960,13 +2960,13 @@
         <v>359.9806855146986</v>
       </c>
       <c r="F31" t="n">
-        <v>40.18759254346845</v>
+        <v>40.18759254346844</v>
       </c>
       <c r="G31" t="n">
         <v>152.719943875802</v>
       </c>
       <c r="H31" t="n">
-        <v>6.045920744753301</v>
+        <v>6.045920744753296</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2993,22 +2993,22 @@
         <v>31.44415709887355</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01794323886741978</v>
+        <v>0.01794323886741968</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3488067686256097</v>
+        <v>0.3488067686256167</v>
       </c>
       <c r="S31" t="n">
-        <v>0.085073850568432</v>
+        <v>0.08507385056843378</v>
       </c>
       <c r="T31" t="n">
-        <v>0.4153279342980026</v>
+        <v>0.415327934297995</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04022462326325253</v>
+        <v>0.04022462326325258</v>
       </c>
       <c r="V31" t="n">
-        <v>0.2584996095081588</v>
+        <v>0.2584996095081623</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.004476699999997891</v>
+        <v>0.001587200000003008</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3042,13 +3042,13 @@
         <v>0.02047606964409494</v>
       </c>
       <c r="F32" t="n">
-        <v>39.48143582659844</v>
+        <v>39.48143582659846</v>
       </c>
       <c r="G32" t="n">
         <v>116.7182896998826</v>
       </c>
       <c r="H32" t="n">
-        <v>7.443525987494111</v>
+        <v>7.443525987494116</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3072,25 +3072,25 @@
         <v>15.58616099902295</v>
       </c>
       <c r="P32" t="n">
-        <v>34.10316134002341</v>
+        <v>34.10316134002343</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01915462749510751</v>
+        <v>0.01915462749510698</v>
       </c>
       <c r="R32" t="n">
-        <v>0.4068536808793974</v>
+        <v>0.4068536808793564</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1456918585406057</v>
+        <v>0.1456918585405877</v>
       </c>
       <c r="T32" t="n">
-        <v>0.2365129071957771</v>
+        <v>0.2365129071957724</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03973851921052387</v>
+        <v>0.03973851921052395</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0962252075773842</v>
+        <v>0.09622520757737965</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002763999999999101</v>
+        <v>0.001858300000002089</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3124,13 +3124,13 @@
         <v>0.03466060602721658</v>
       </c>
       <c r="F33" t="n">
-        <v>39.62143600073517</v>
+        <v>39.62143600073519</v>
       </c>
       <c r="G33" t="n">
-        <v>51.22688849731492</v>
+        <v>51.2268884973149</v>
       </c>
       <c r="H33" t="n">
-        <v>14.34100697993639</v>
+        <v>14.3410069799364</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3154,25 +3154,25 @@
         <v>17.00308052962435</v>
       </c>
       <c r="P33" t="n">
-        <v>49.96619728473182</v>
+        <v>49.96619728473186</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.02084361234650063</v>
+        <v>0.02084361234650037</v>
       </c>
       <c r="R33" t="n">
-        <v>0.5292379135682854</v>
+        <v>0.5292379135682247</v>
       </c>
       <c r="S33" t="n">
-        <v>0.2374493936135648</v>
+        <v>0.2374493936135398</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3466037022169022</v>
+        <v>0.3466037022168874</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0410137537147361</v>
+        <v>0.04101375371473608</v>
       </c>
       <c r="V33" t="n">
-        <v>0.05959655249922408</v>
+        <v>0.05959655249922116</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.003010100000011562</v>
+        <v>0.001970199999995259</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3212,7 +3212,7 @@
         <v>153.5368820832131</v>
       </c>
       <c r="H34" t="n">
-        <v>7.228453305225981</v>
+        <v>7.228453305225982</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3239,22 +3239,22 @@
         <v>29.74418077687842</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.01792470236232127</v>
+        <v>0.0179247023623214</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3341199795562691</v>
+        <v>0.3341199795562756</v>
       </c>
       <c r="S34" t="n">
-        <v>0.09047646778541954</v>
+        <v>0.09047646778542387</v>
       </c>
       <c r="T34" t="n">
         <v>0.3433560140324013</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04041363838245104</v>
+        <v>0.04041363838245097</v>
       </c>
       <c r="V34" t="n">
-        <v>0.1137639316011753</v>
+        <v>0.113763931601175</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002166900000005967</v>
+        <v>0.001580100000005302</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3288,13 +3288,13 @@
         <v>0.05921544332859537</v>
       </c>
       <c r="F35" t="n">
-        <v>39.81215946315245</v>
+        <v>39.81215946315244</v>
       </c>
       <c r="G35" t="n">
-        <v>48.52560070464589</v>
+        <v>48.52560070464585</v>
       </c>
       <c r="H35" t="n">
-        <v>7.563943470446558</v>
+        <v>7.563943470446562</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3321,22 +3321,22 @@
         <v>43.94379077220685</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0197613338872787</v>
+        <v>0.01976133388727937</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4464578913989292</v>
+        <v>0.4464578913989263</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1386166395676578</v>
+        <v>0.1386166395676628</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4372674165119367</v>
+        <v>0.4372674165119576</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03840352351704544</v>
+        <v>0.0384035235170454</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3949184402842689</v>
+        <v>0.3949184402842671</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.0035251000000045</v>
+        <v>0.001824700000000234</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3400,25 +3400,25 @@
         <v>3.289207857622606</v>
       </c>
       <c r="P36" t="n">
-        <v>51.95256973569019</v>
+        <v>51.95256973569018</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01821713250560521</v>
+        <v>0.01821713250560547</v>
       </c>
       <c r="R36" t="n">
-        <v>0.6624307424445374</v>
+        <v>0.6624307424445395</v>
       </c>
       <c r="S36" t="n">
-        <v>0.07580405770526956</v>
+        <v>0.07580405770527072</v>
       </c>
       <c r="T36" t="n">
-        <v>1.08394261877664</v>
+        <v>1.083942618776663</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03821328477640892</v>
+        <v>0.03821328477640896</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1078601314837259</v>
+        <v>0.1078601314837271</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001970499999998765</v>
+        <v>0.001433599999998592</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3455,10 +3455,10 @@
         <v>40.13347151980251</v>
       </c>
       <c r="G37" t="n">
-        <v>83.26540063942723</v>
+        <v>83.26540063942726</v>
       </c>
       <c r="H37" t="n">
-        <v>6.733057767365052</v>
+        <v>6.733057767365049</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3485,22 +3485,22 @@
         <v>39.54613627223666</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.01989402821404895</v>
+        <v>0.01989402821404857</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4398214194756929</v>
+        <v>0.4398214194756723</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1518634198980955</v>
+        <v>0.151863419898086</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3180633728328343</v>
+        <v>0.3180633728328285</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04174888490014553</v>
+        <v>0.04174888490014549</v>
       </c>
       <c r="V37" t="n">
-        <v>0.04766147081001972</v>
+        <v>0.04766147081001873</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.004463599999994017</v>
+        <v>0.001783299999999599</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3564,25 +3564,25 @@
         <v>19.54201507813974</v>
       </c>
       <c r="P38" t="n">
-        <v>30.67730439505736</v>
+        <v>30.67730439505737</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01915901806856488</v>
+        <v>0.01915901806856368</v>
       </c>
       <c r="R38" t="n">
-        <v>0.4178343180167575</v>
+        <v>0.4178343180167094</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1592470893729516</v>
+        <v>0.1592470893729305</v>
       </c>
       <c r="T38" t="n">
-        <v>0.1630627336540705</v>
+        <v>0.163062733654068</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04423863994805841</v>
+        <v>0.04423863994805835</v>
       </c>
       <c r="V38" t="n">
-        <v>0.05676920948413129</v>
+        <v>0.0567692094841311</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.003429600000004029</v>
+        <v>0.002557699999996998</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3622,7 +3622,7 @@
         <v>168.1817111837706</v>
       </c>
       <c r="H39" t="n">
-        <v>7.887802966412815</v>
+        <v>7.887802966412816</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3649,22 +3649,22 @@
         <v>28.41821100429297</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01669451170719885</v>
+        <v>0.01669451170719869</v>
       </c>
       <c r="R39" t="n">
-        <v>0.339124876654417</v>
+        <v>0.3391248766544187</v>
       </c>
       <c r="S39" t="n">
-        <v>0.06498202940101999</v>
+        <v>0.06498202940102027</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4818995868435271</v>
+        <v>0.4818995868435191</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03859763920261035</v>
+        <v>0.03859763920261033</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3167117599630402</v>
+        <v>0.3167117599630399</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002458699999991154</v>
+        <v>0.001705100000002346</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3701,10 +3701,10 @@
         <v>40.23016605688418</v>
       </c>
       <c r="G40" t="n">
-        <v>69.07809483089129</v>
+        <v>69.07809483089126</v>
       </c>
       <c r="H40" t="n">
-        <v>13.48833218865791</v>
+        <v>13.48833218865792</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3728,25 +3728,25 @@
         <v>20.53974404026142</v>
       </c>
       <c r="P40" t="n">
-        <v>46.33958527294279</v>
+        <v>46.33958527294281</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.02121714841338873</v>
+        <v>0.02121714841339046</v>
       </c>
       <c r="R40" t="n">
-        <v>0.5408957377802458</v>
+        <v>0.5408957377802776</v>
       </c>
       <c r="S40" t="n">
-        <v>0.2600931218179577</v>
+        <v>0.2600931218179849</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2571289355495675</v>
+        <v>0.257128935549597</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04251308794234988</v>
+        <v>0.0425130879423499</v>
       </c>
       <c r="V40" t="n">
-        <v>0.05416674202099668</v>
+        <v>0.05416674202099819</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002684400000006804</v>
+        <v>0.001910299999998699</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3786,7 +3786,7 @@
         <v>98.35641057696809</v>
       </c>
       <c r="H41" t="n">
-        <v>12.41336764310711</v>
+        <v>12.41336764310712</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3813,22 +3813,22 @@
         <v>38.25012616023174</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.02013586473012596</v>
+        <v>0.02013586473012866</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4996218674972906</v>
+        <v>0.499621867497444</v>
       </c>
       <c r="S41" t="n">
-        <v>0.2429466117729563</v>
+        <v>0.2429466117730364</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1524962672729034</v>
+        <v>0.1524962672729178</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04177353482376894</v>
+        <v>0.04177353482376896</v>
       </c>
       <c r="V41" t="n">
-        <v>0.05673710281505053</v>
+        <v>0.05673710281504917</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.003810999999998899</v>
+        <v>0.002454999999997654</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3865,10 +3865,10 @@
         <v>40.17731003197245</v>
       </c>
       <c r="G42" t="n">
-        <v>66.25824208414114</v>
+        <v>66.25824208414124</v>
       </c>
       <c r="H42" t="n">
-        <v>3.936593669437864</v>
+        <v>3.93659366943786</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3892,25 +3892,25 @@
         <v>7.918471592641113</v>
       </c>
       <c r="P42" t="n">
-        <v>39.8427619348179</v>
+        <v>39.84276193481789</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01896981629934112</v>
+        <v>0.01896981629934161</v>
       </c>
       <c r="R42" t="n">
-        <v>0.4133813783915812</v>
+        <v>0.4133813783915772</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1028914545628882</v>
+        <v>0.1028914545628904</v>
       </c>
       <c r="T42" t="n">
-        <v>0.5027302728214298</v>
+        <v>0.5027302728214478</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03875637863591837</v>
+        <v>0.03875637863591842</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4026876458534935</v>
+        <v>0.4026876458534867</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002205399999994029</v>
+        <v>0.001658200000001386</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3971,25 +3971,25 @@
         <v>40.60700288008367</v>
       </c>
       <c r="O43" t="n">
-        <v>5.910013397690414</v>
+        <v>5.910013397690402</v>
       </c>
       <c r="P43" t="n">
         <v>39.25819901440745</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.01819266580237236</v>
+        <v>0.01819266580237192</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4262472829219593</v>
+        <v>0.4262472829219569</v>
       </c>
       <c r="S43" t="n">
-        <v>0.08283105525047824</v>
+        <v>0.08283105525047701</v>
       </c>
       <c r="T43" t="n">
-        <v>0.6181673256255082</v>
+        <v>0.6181673256254914</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04009304544197152</v>
+        <v>0.04009304544197154</v>
       </c>
       <c r="V43" t="n">
         <v>0.9694034723745543</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.003430700000009779</v>
+        <v>0.001611799999999164</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4029,7 +4029,7 @@
         <v>39.89063172047384</v>
       </c>
       <c r="G44" t="n">
-        <v>68.61281447041617</v>
+        <v>68.61281447041614</v>
       </c>
       <c r="H44" t="n">
         <v>14.07108812047477</v>
@@ -4056,25 +4056,25 @@
         <v>21.28692815759675</v>
       </c>
       <c r="P44" t="n">
-        <v>46.61194121020688</v>
+        <v>46.61194121020689</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.02078626590772709</v>
+        <v>0.0207862659077269</v>
       </c>
       <c r="R44" t="n">
-        <v>0.5405038236883849</v>
+        <v>0.5405038236883744</v>
       </c>
       <c r="S44" t="n">
-        <v>0.2685525676288572</v>
+        <v>0.2685525676288493</v>
       </c>
       <c r="T44" t="n">
-        <v>0.252179401338328</v>
+        <v>0.2521794013383194</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03750107829886716</v>
+        <v>0.03750107829886708</v>
       </c>
       <c r="V44" t="n">
-        <v>0.115546229806215</v>
+        <v>0.1155462298062134</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.00266199999998662</v>
+        <v>0.002064500000003022</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4108,7 +4108,7 @@
         <v>359.9843411622093</v>
       </c>
       <c r="F45" t="n">
-        <v>39.6116439872081</v>
+        <v>39.61164398720811</v>
       </c>
       <c r="G45" t="n">
         <v>19.80440934360388</v>
@@ -4141,22 +4141,22 @@
         <v>49.48803644643503</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.01942830163140589</v>
+        <v>0.01942830163140597</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4893102197524852</v>
+        <v>0.4893102197524853</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1094104629127519</v>
+        <v>0.1094104629127516</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6863371688837507</v>
+        <v>0.6863371688837536</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03910882996027939</v>
+        <v>0.03910882996027946</v>
       </c>
       <c r="V45" t="n">
-        <v>0.1534502292412945</v>
+        <v>0.1534502292412936</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.003784699999997088</v>
+        <v>0.001542800000002842</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4196,7 +4196,7 @@
         <v>149.4317565905257</v>
       </c>
       <c r="H46" t="n">
-        <v>4.320106730210344</v>
+        <v>4.320106730210347</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4220,25 +4220,25 @@
         <v>6.444951036036044</v>
       </c>
       <c r="P46" t="n">
-        <v>33.95349181378308</v>
+        <v>33.95349181378307</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.01794454784666376</v>
+        <v>0.0179445478466638</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3851871960291596</v>
+        <v>0.3851871960291646</v>
       </c>
       <c r="S46" t="n">
-        <v>0.07822466135827219</v>
+        <v>0.07822466135827365</v>
       </c>
       <c r="T46" t="n">
         <v>0.5324959887764819</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03990360941603936</v>
+        <v>0.03990360941603937</v>
       </c>
       <c r="V46" t="n">
-        <v>0.1055261430116257</v>
+        <v>0.1055261430116267</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002220300000004727</v>
+        <v>0.00158810000000642</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4305,22 +4305,22 @@
         <v>25.03439913257822</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0145436852285666</v>
+        <v>0.01454368522856605</v>
       </c>
       <c r="R47" t="n">
-        <v>0.4214569903666349</v>
+        <v>0.4214569903666222</v>
       </c>
       <c r="S47" t="n">
-        <v>0.04107455472468578</v>
+        <v>0.04107455472468435</v>
       </c>
       <c r="T47" t="n">
-        <v>0.6317490399588009</v>
+        <v>0.6317490399587695</v>
       </c>
       <c r="U47" t="n">
         <v>0.03765809325267037</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3278427386123907</v>
+        <v>0.3278427386123911</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001915300000007392</v>
+        <v>0.001535499999995693</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4387,22 +4387,22 @@
         <v>28.85312731170464</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.01909154033433881</v>
+        <v>0.01909154033434036</v>
       </c>
       <c r="R48" t="n">
-        <v>0.4046811325038246</v>
+        <v>0.4046811325039056</v>
       </c>
       <c r="S48" t="n">
-        <v>0.145126650313856</v>
+        <v>0.1451266503138851</v>
       </c>
       <c r="T48" t="n">
-        <v>0.1666005677481451</v>
+        <v>0.1666005677481484</v>
       </c>
       <c r="U48" t="n">
-        <v>0.04121912390972516</v>
+        <v>0.04121912390972514</v>
       </c>
       <c r="V48" t="n">
-        <v>0.04344816885499952</v>
+        <v>0.04344816885500014</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002507399999998938</v>
+        <v>0.002091199999995297</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4436,13 +4436,13 @@
         <v>0.005686301347584152</v>
       </c>
       <c r="F49" t="n">
-        <v>40.25376826701638</v>
+        <v>40.25376826701639</v>
       </c>
       <c r="G49" t="n">
         <v>20.71520206042635</v>
       </c>
       <c r="H49" t="n">
-        <v>14.48000750093285</v>
+        <v>14.48000750093286</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4466,25 +4466,25 @@
         <v>7.736041492903023</v>
       </c>
       <c r="P49" t="n">
-        <v>54.38503266801127</v>
+        <v>54.3850326680113</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.02060473414181839</v>
+        <v>0.02060473414181888</v>
       </c>
       <c r="R49" t="n">
-        <v>0.5256654605530776</v>
+        <v>0.5256654605530736</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1395395353469797</v>
+        <v>0.1395395353469818</v>
       </c>
       <c r="T49" t="n">
-        <v>0.6674392152197364</v>
+        <v>0.6674392152197576</v>
       </c>
       <c r="U49" t="n">
-        <v>0.03983141223040513</v>
+        <v>0.03983141223040512</v>
       </c>
       <c r="V49" t="n">
-        <v>0.04452332837686515</v>
+        <v>0.04452332837686216</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002203699999995479</v>
+        <v>0.001642300000000319</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4518,13 +4518,13 @@
         <v>359.9971661745125</v>
       </c>
       <c r="F50" t="n">
-        <v>39.34772415256533</v>
+        <v>39.34772415256531</v>
       </c>
       <c r="G50" t="n">
         <v>2.95736915858024</v>
       </c>
       <c r="H50" t="n">
-        <v>14.12572627219538</v>
+        <v>14.12572627219539</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4551,22 +4551,22 @@
         <v>53.69853776213175</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0168822900790269</v>
+        <v>0.01688229007902704</v>
       </c>
       <c r="R50" t="n">
-        <v>0.8263924124889246</v>
+        <v>0.8263924124889346</v>
       </c>
       <c r="S50" t="n">
-        <v>0.06187049430603677</v>
+        <v>0.0618704943060366</v>
       </c>
       <c r="T50" t="n">
-        <v>1.344674382011031</v>
+        <v>1.344674382011047</v>
       </c>
       <c r="U50" t="n">
         <v>0.0407515946024305</v>
       </c>
       <c r="V50" t="n">
-        <v>0.09360531785040138</v>
+        <v>0.09360531785040364</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001979999999988991</v>
+        <v>0.001421899999996867</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4603,10 +4603,10 @@
         <v>39.51118998469391</v>
       </c>
       <c r="G51" t="n">
-        <v>52.79468004320156</v>
+        <v>52.79468004320154</v>
       </c>
       <c r="H51" t="n">
-        <v>5.994414199314996</v>
+        <v>5.994414199314998</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4630,25 +4630,25 @@
         <v>9.491115394458641</v>
       </c>
       <c r="P51" t="n">
-        <v>41.81684339826733</v>
+        <v>41.81684339826734</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01929559336888972</v>
+        <v>0.01929559336889005</v>
       </c>
       <c r="R51" t="n">
-        <v>0.4217119922463077</v>
+        <v>0.4217119922463044</v>
       </c>
       <c r="S51" t="n">
-        <v>0.1215136231234921</v>
+        <v>0.1215136231234931</v>
       </c>
       <c r="T51" t="n">
-        <v>0.4499825607410842</v>
+        <v>0.4499825607410907</v>
       </c>
       <c r="U51" t="n">
-        <v>0.03640207710097672</v>
+        <v>0.03640207710097667</v>
       </c>
       <c r="V51" t="n">
-        <v>0.06812687758040624</v>
+        <v>0.06812687758040742</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001923700000006079</v>
+        <v>0.001421100000001729</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4682,13 +4682,13 @@
         <v>359.9956027604667</v>
       </c>
       <c r="F52" t="n">
-        <v>39.94613847815963</v>
+        <v>39.94613847815965</v>
       </c>
       <c r="G52" t="n">
-        <v>87.36185327103792</v>
+        <v>87.36185327103793</v>
       </c>
       <c r="H52" t="n">
-        <v>5.77965416485624</v>
+        <v>5.779654164856245</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4709,28 +4709,28 @@
         <v>38.3554914922189</v>
       </c>
       <c r="O52" t="n">
-        <v>12.13546002276517</v>
+        <v>12.13546002276518</v>
       </c>
       <c r="P52" t="n">
-        <v>38.50956862691025</v>
+        <v>38.50956862691027</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.01952547288749103</v>
+        <v>0.01952547288749222</v>
       </c>
       <c r="R52" t="n">
-        <v>0.4193233184231512</v>
+        <v>0.4193233184231538</v>
       </c>
       <c r="S52" t="n">
-        <v>0.1359756752998982</v>
+        <v>0.1359756752999084</v>
       </c>
       <c r="T52" t="n">
-        <v>0.3408099050619289</v>
+        <v>0.3408099050619529</v>
       </c>
       <c r="U52" t="n">
-        <v>0.03921569354086284</v>
+        <v>0.03921569354086276</v>
       </c>
       <c r="V52" t="n">
-        <v>0.07052433602623709</v>
+        <v>0.07052433602624003</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.003940499999998792</v>
+        <v>0.00165519999999475</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4767,10 +4767,10 @@
         <v>39.58284876305343</v>
       </c>
       <c r="G53" t="n">
-        <v>111.7312983324735</v>
+        <v>111.7312983324733</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2648770541965</v>
+        <v>3.264877054196498</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4794,25 +4794,25 @@
         <v>7.711271570199504</v>
       </c>
       <c r="P53" t="n">
-        <v>35.83999218506359</v>
+        <v>35.83999218506361</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.01815714306097651</v>
+        <v>0.01815714306097669</v>
       </c>
       <c r="R53" t="n">
-        <v>0.376344741873664</v>
+        <v>0.3763447418736538</v>
       </c>
       <c r="S53" t="n">
-        <v>0.09044073777294476</v>
+        <v>0.0904407377729454</v>
       </c>
       <c r="T53" t="n">
-        <v>0.4722129834326108</v>
+        <v>0.4722129834326164</v>
       </c>
       <c r="U53" t="n">
-        <v>0.03892780805953256</v>
+        <v>0.03892780805953253</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4656752886808583</v>
+        <v>0.4656752886808669</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002208899999999403</v>
+        <v>0.001583300000000065</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4852,7 +4852,7 @@
         <v>136.4685933823772</v>
       </c>
       <c r="H54" t="n">
-        <v>2.765617004580915</v>
+        <v>2.765617004580918</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4876,25 +4876,25 @@
         <v>5.525950437941734</v>
       </c>
       <c r="P54" t="n">
-        <v>35.60650177742395</v>
+        <v>35.60650177742394</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.01755886375852604</v>
+        <v>0.0175588637585257</v>
       </c>
       <c r="R54" t="n">
-        <v>0.4105584491771845</v>
+        <v>0.4105584491771857</v>
       </c>
       <c r="S54" t="n">
-        <v>0.07329233129351877</v>
+        <v>0.07329233129351698</v>
       </c>
       <c r="T54" t="n">
-        <v>0.6048832973093813</v>
+        <v>0.6048832973093695</v>
       </c>
       <c r="U54" t="n">
         <v>0.03692471362523643</v>
       </c>
       <c r="V54" t="n">
-        <v>0.7851813236607635</v>
+        <v>0.7851813236607601</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.00214270000000738</v>
+        <v>0.001600400000000946</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4934,7 +4934,7 @@
         <v>151.7363271352205</v>
       </c>
       <c r="H55" t="n">
-        <v>9.617580785156713</v>
+        <v>9.617580785156719</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4961,22 +4961,22 @@
         <v>27.96714638734661</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.01853065106554748</v>
+        <v>0.01853065106554753</v>
       </c>
       <c r="R55" t="n">
-        <v>0.3549715257899098</v>
+        <v>0.3549715257898976</v>
       </c>
       <c r="S55" t="n">
-        <v>0.1113801928239694</v>
+        <v>0.1113801928239672</v>
       </c>
       <c r="T55" t="n">
-        <v>0.2328938609924006</v>
+        <v>0.2328938609924024</v>
       </c>
       <c r="U55" t="n">
-        <v>0.0448716183841661</v>
+        <v>0.04487161838416601</v>
       </c>
       <c r="V55" t="n">
-        <v>0.0577955224421281</v>
+        <v>0.05779552244212673</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002211399999993091</v>
+        <v>0.001679899999999179</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5010,13 +5010,13 @@
         <v>0.03907046141960353</v>
       </c>
       <c r="F56" t="n">
-        <v>39.43895389745056</v>
+        <v>39.43895389745057</v>
       </c>
       <c r="G56" t="n">
-        <v>78.33341647357557</v>
+        <v>78.33341647357555</v>
       </c>
       <c r="H56" t="n">
-        <v>7.030437286067013</v>
+        <v>7.030437286067015</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5043,22 +5043,22 @@
         <v>39.67285542934604</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01953549423642549</v>
+        <v>0.01953549423642599</v>
       </c>
       <c r="R56" t="n">
-        <v>0.4315581917338823</v>
+        <v>0.4315581917338854</v>
       </c>
       <c r="S56" t="n">
-        <v>0.153424548099484</v>
+        <v>0.1534245480994884</v>
       </c>
       <c r="T56" t="n">
-        <v>0.3115039048984076</v>
+        <v>0.3115039048984184</v>
       </c>
       <c r="U56" t="n">
-        <v>0.03935363942731112</v>
+        <v>0.03935363942731122</v>
       </c>
       <c r="V56" t="n">
-        <v>0.2261267725237033</v>
+        <v>0.2261267725237022</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002410199999999918</v>
+        <v>0.001806899999998279</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5092,13 +5092,13 @@
         <v>359.9804636781901</v>
       </c>
       <c r="F57" t="n">
-        <v>40.1974592747827</v>
+        <v>40.19745927478269</v>
       </c>
       <c r="G57" t="n">
         <v>16.64066137858547</v>
       </c>
       <c r="H57" t="n">
-        <v>15.13941660364301</v>
+        <v>15.139416603643</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5122,25 +5122,25 @@
         <v>6.596928602578958</v>
       </c>
       <c r="P57" t="n">
-        <v>55.35404361358289</v>
+        <v>55.35404361358287</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02036873754360729</v>
+        <v>0.02036873754360703</v>
       </c>
       <c r="R57" t="n">
-        <v>0.5398808816106642</v>
+        <v>0.5398808816106707</v>
       </c>
       <c r="S57" t="n">
-        <v>0.1266116325903155</v>
+        <v>0.126611632590315</v>
       </c>
       <c r="T57" t="n">
-        <v>0.7496004547017376</v>
+        <v>0.7496004547017264</v>
       </c>
       <c r="U57" t="n">
         <v>0.03907692320135867</v>
       </c>
       <c r="V57" t="n">
-        <v>0.1155704145241019</v>
+        <v>0.1155704145240997</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001992200000003663</v>
+        <v>0.001455700000001059</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5174,13 +5174,13 @@
         <v>359.982639996625</v>
       </c>
       <c r="F58" t="n">
-        <v>40.09667013884324</v>
+        <v>40.09667013884325</v>
       </c>
       <c r="G58" t="n">
-        <v>176.6357107165589</v>
+        <v>176.635710716559</v>
       </c>
       <c r="H58" t="n">
-        <v>6.718267402616114</v>
+        <v>6.718267402616124</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5207,22 +5207,22 @@
         <v>29.47745827764605</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.01485972771496718</v>
+        <v>0.0148597277149671</v>
       </c>
       <c r="R58" t="n">
-        <v>0.4752892282006072</v>
+        <v>0.4752892282006065</v>
       </c>
       <c r="S58" t="n">
-        <v>0.04452420381140938</v>
+        <v>0.04452420381140896</v>
       </c>
       <c r="T58" t="n">
-        <v>0.7250742250939515</v>
+        <v>0.7250742250939447</v>
       </c>
       <c r="U58" t="n">
-        <v>0.03839303041128658</v>
+        <v>0.03839303041128665</v>
       </c>
       <c r="V58" t="n">
-        <v>0.1488660709619243</v>
+        <v>0.1488660709619188</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001913600000008842</v>
+        <v>0.002020299999998088</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5256,13 +5256,13 @@
         <v>359.9827753683357</v>
       </c>
       <c r="F59" t="n">
-        <v>39.23863653465441</v>
+        <v>39.2386365346544</v>
       </c>
       <c r="G59" t="n">
         <v>13.03125222896482</v>
       </c>
       <c r="H59" t="n">
-        <v>7.217563073846911</v>
+        <v>7.217563073846907</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5286,25 +5286,25 @@
         <v>3.950212782896176</v>
       </c>
       <c r="P59" t="n">
-        <v>45.16760638867462</v>
+        <v>45.1676063886746</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.0174889085748058</v>
+        <v>0.01748890857480595</v>
       </c>
       <c r="R59" t="n">
-        <v>0.5384269250828031</v>
+        <v>0.5384269250828014</v>
       </c>
       <c r="S59" t="n">
-        <v>0.07255181221696351</v>
+        <v>0.07255181221696401</v>
       </c>
       <c r="T59" t="n">
-        <v>0.8627447144011418</v>
+        <v>0.8627447144011532</v>
       </c>
       <c r="U59" t="n">
-        <v>0.04363068435350773</v>
+        <v>0.04363068435350776</v>
       </c>
       <c r="V59" t="n">
-        <v>0.7365593192594952</v>
+        <v>0.7365593192594926</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.003686000000001854</v>
+        <v>0.001515799999999956</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5338,13 +5338,13 @@
         <v>359.9895576446732</v>
       </c>
       <c r="F60" t="n">
-        <v>39.16229626931246</v>
+        <v>39.16229626931245</v>
       </c>
       <c r="G60" t="n">
-        <v>63.57387187053678</v>
+        <v>63.57387187053684</v>
       </c>
       <c r="H60" t="n">
-        <v>8.421756014848388</v>
+        <v>8.421756014848379</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5368,25 +5368,25 @@
         <v>13.97385483286601</v>
       </c>
       <c r="P60" t="n">
-        <v>42.29527708268699</v>
+        <v>42.29527708268697</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.01981407441690193</v>
+        <v>0.01981407441690167</v>
       </c>
       <c r="R60" t="n">
-        <v>0.4468313076763456</v>
+        <v>0.4468313076763381</v>
       </c>
       <c r="S60" t="n">
-        <v>0.1652119250287116</v>
+        <v>0.1652119250287075</v>
       </c>
       <c r="T60" t="n">
-        <v>0.3283969282537103</v>
+        <v>0.328396928253704</v>
       </c>
       <c r="U60" t="n">
-        <v>0.03769107280211382</v>
+        <v>0.03769107280211377</v>
       </c>
       <c r="V60" t="n">
-        <v>0.08846685228125518</v>
+        <v>0.08846685228125196</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002415099999993231</v>
+        <v>0.001806100000003141</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5426,7 +5426,7 @@
         <v>168.0753125695702</v>
       </c>
       <c r="H61" t="n">
-        <v>5.238737925180471</v>
+        <v>5.238737925180473</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5453,22 +5453,22 @@
         <v>31.10981669709697</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.01619469694638794</v>
+        <v>0.01619469694638792</v>
       </c>
       <c r="R61" t="n">
-        <v>0.4045273952938584</v>
+        <v>0.4045273952938554</v>
       </c>
       <c r="S61" t="n">
-        <v>0.05728897751979131</v>
+        <v>0.05728897751979138</v>
       </c>
       <c r="T61" t="n">
-        <v>0.6213744275818376</v>
+        <v>0.6213744275818334</v>
       </c>
       <c r="U61" t="n">
-        <v>0.04018472677123759</v>
+        <v>0.0401847267712376</v>
       </c>
       <c r="V61" t="n">
-        <v>0.2651675104547644</v>
+        <v>0.2651675104547654</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.00266340000000298</v>
+        <v>0.001590999999997678</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5502,13 +5502,13 @@
         <v>359.9766693258293</v>
       </c>
       <c r="F62" t="n">
-        <v>40.69040238771112</v>
+        <v>40.69040238771113</v>
       </c>
       <c r="G62" t="n">
-        <v>52.84108326724402</v>
+        <v>52.84108326724403</v>
       </c>
       <c r="H62" t="n">
-        <v>5.557402740405151</v>
+        <v>5.557402740405154</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5532,25 +5532,25 @@
         <v>8.734827603136821</v>
       </c>
       <c r="P62" t="n">
-        <v>42.59626933477846</v>
+        <v>42.59626933477847</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.01972806967411278</v>
+        <v>0.01972806967411304</v>
       </c>
       <c r="R62" t="n">
-        <v>0.4418634529742748</v>
+        <v>0.4418634529742793</v>
       </c>
       <c r="S62" t="n">
-        <v>0.118996609012024</v>
+        <v>0.1189966090120288</v>
       </c>
       <c r="T62" t="n">
-        <v>0.4930762947180891</v>
+        <v>0.4930762947180976</v>
       </c>
       <c r="U62" t="n">
-        <v>0.04282531312123399</v>
+        <v>0.04282531312123408</v>
       </c>
       <c r="V62" t="n">
-        <v>0.2381144869421406</v>
+        <v>0.2381144869421424</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.001952399999993304</v>
+        <v>0.001503499999998326</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5590,7 +5590,7 @@
         <v>147.7735802450055</v>
       </c>
       <c r="H63" t="n">
-        <v>5.186006503657498</v>
+        <v>5.186006503657505</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5614,25 +5614,25 @@
         <v>7.887020724460642</v>
       </c>
       <c r="P63" t="n">
-        <v>32.77518842146655</v>
+        <v>32.77518842146654</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01810283470700429</v>
+        <v>0.01810283470700466</v>
       </c>
       <c r="R63" t="n">
-        <v>0.3612165207783035</v>
+        <v>0.3612165207783104</v>
       </c>
       <c r="S63" t="n">
-        <v>0.08610830626866729</v>
+        <v>0.08610830626867273</v>
       </c>
       <c r="T63" t="n">
-        <v>0.4424446552403037</v>
+        <v>0.442444655240313</v>
       </c>
       <c r="U63" t="n">
-        <v>0.04126427985631518</v>
+        <v>0.0412642798563152</v>
       </c>
       <c r="V63" t="n">
-        <v>0.04923699062038043</v>
+        <v>0.0492369906203817</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002172999999999092</v>
+        <v>0.001801799999995524</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5672,7 +5672,7 @@
         <v>6.681198797080942</v>
       </c>
       <c r="H64" t="n">
-        <v>8.017949338529355</v>
+        <v>8.017949338529357</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5699,22 +5699,22 @@
         <v>47.88840855128421</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.01750428012313241</v>
+        <v>0.01750428012313182</v>
       </c>
       <c r="R64" t="n">
-        <v>0.7013047374242437</v>
+        <v>0.7013047374242406</v>
       </c>
       <c r="S64" t="n">
-        <v>0.06416157385310725</v>
+        <v>0.06416157385310413</v>
       </c>
       <c r="T64" t="n">
-        <v>1.132549443245257</v>
+        <v>1.132549443245206</v>
       </c>
       <c r="U64" t="n">
-        <v>0.03576161496736574</v>
+        <v>0.03576161496736573</v>
       </c>
       <c r="V64" t="n">
-        <v>0.2626479592716151</v>
+        <v>0.2626479592716146</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001936499999999342</v>
+        <v>0.001442799999999522</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5754,7 +5754,7 @@
         <v>100.4471548639332</v>
       </c>
       <c r="H65" t="n">
-        <v>7.794645788321495</v>
+        <v>7.794645788321496</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5778,25 +5778,25 @@
         <v>16.1061770227394</v>
       </c>
       <c r="P65" t="n">
-        <v>37.36092774541089</v>
+        <v>37.36092774541088</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.01992908975045979</v>
+        <v>0.01992908975045998</v>
       </c>
       <c r="R65" t="n">
-        <v>0.4465965990240057</v>
+        <v>0.446596599023997</v>
       </c>
       <c r="S65" t="n">
-        <v>0.1663231092647332</v>
+        <v>0.1663231092647335</v>
       </c>
       <c r="T65" t="n">
-        <v>0.2495791041101926</v>
+        <v>0.249579104110197</v>
       </c>
       <c r="U65" t="n">
-        <v>0.0383876796956109</v>
+        <v>0.03838767969561092</v>
       </c>
       <c r="V65" t="n">
-        <v>0.035580165532861</v>
+        <v>0.03558016553286097</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002401000000006093</v>
+        <v>0.001855700000000127</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5830,13 +5830,13 @@
         <v>0.05490711554930765</v>
       </c>
       <c r="F66" t="n">
-        <v>40.04477969519968</v>
+        <v>40.04477969519967</v>
       </c>
       <c r="G66" t="n">
-        <v>69.56201251334097</v>
+        <v>69.56201251334096</v>
       </c>
       <c r="H66" t="n">
-        <v>9.611958260161185</v>
+        <v>9.61195826016119</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5863,22 +5863,22 @@
         <v>43.16271977717494</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.02027891655030973</v>
+        <v>0.02027891655031084</v>
       </c>
       <c r="R66" t="n">
-        <v>0.4843602814689411</v>
+        <v>0.4843602814690091</v>
       </c>
       <c r="S66" t="n">
-        <v>0.1934496676223184</v>
+        <v>0.1934496676223498</v>
       </c>
       <c r="T66" t="n">
-        <v>0.2953341433346353</v>
+        <v>0.295334143334661</v>
       </c>
       <c r="U66" t="n">
-        <v>0.04318767854873237</v>
+        <v>0.0431876785487323</v>
       </c>
       <c r="V66" t="n">
-        <v>0.09487864683775957</v>
+        <v>0.09487864683775749</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.004266100000009487</v>
+        <v>0.001776900000002968</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5915,10 +5915,10 @@
         <v>39.89162420576058</v>
       </c>
       <c r="G67" t="n">
-        <v>38.8809767007777</v>
+        <v>38.88097670077762</v>
       </c>
       <c r="H67" t="n">
-        <v>3.353761010199099</v>
+        <v>3.353761010199106</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5945,22 +5945,22 @@
         <v>40.57872569310219</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.01801955816479755</v>
+        <v>0.01801955816479769</v>
       </c>
       <c r="R67" t="n">
-        <v>0.4517265140983172</v>
+        <v>0.4517265140983199</v>
       </c>
       <c r="S67" t="n">
-        <v>0.07909537973170454</v>
+        <v>0.07909537973170572</v>
       </c>
       <c r="T67" t="n">
-        <v>0.682146062221814</v>
+        <v>0.6821460622218225</v>
       </c>
       <c r="U67" t="n">
-        <v>0.03968611534562896</v>
+        <v>0.03968611534562901</v>
       </c>
       <c r="V67" t="n">
-        <v>0.03813904154550454</v>
+        <v>0.03813904154550109</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002274999999997362</v>
+        <v>0.001586600000003102</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5994,13 +5994,13 @@
         <v>359.98183493933</v>
       </c>
       <c r="F68" t="n">
-        <v>39.61283294835581</v>
+        <v>39.61283294835582</v>
       </c>
       <c r="G68" t="n">
-        <v>29.03722093776397</v>
+        <v>29.0372209377639</v>
       </c>
       <c r="H68" t="n">
-        <v>4.300598967320099</v>
+        <v>4.300598967320114</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6024,25 +6024,25 @@
         <v>5.042831322362718</v>
       </c>
       <c r="P68" t="n">
-        <v>41.66980120020477</v>
+        <v>41.66980120020481</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.01785368919389861</v>
+        <v>0.01785368919389863</v>
       </c>
       <c r="R68" t="n">
-        <v>0.4623504241956973</v>
+        <v>0.4623504241956884</v>
       </c>
       <c r="S68" t="n">
-        <v>0.07859409389338134</v>
+        <v>0.07859409389337985</v>
       </c>
       <c r="T68" t="n">
-        <v>0.706369115579687</v>
+        <v>0.7063691155796901</v>
       </c>
       <c r="U68" t="n">
-        <v>0.03925008359643999</v>
+        <v>0.03925008359644008</v>
       </c>
       <c r="V68" t="n">
-        <v>0.2317158373443337</v>
+        <v>0.2317158373443232</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.003965099999987842</v>
+        <v>0.002156499999998118</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,10 +6076,10 @@
         <v>0.05186743392685382</v>
       </c>
       <c r="F69" t="n">
-        <v>39.35632086699316</v>
+        <v>39.35632086699315</v>
       </c>
       <c r="G69" t="n">
-        <v>98.8589134705761</v>
+        <v>98.85891347057606</v>
       </c>
       <c r="H69" t="n">
         <v>12.9636390675267</v>
@@ -6106,25 +6106,25 @@
         <v>25.7651272262034</v>
       </c>
       <c r="P69" t="n">
-        <v>38.13553348153337</v>
+        <v>38.13553348153338</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.01985246933926743</v>
+        <v>0.01985246933926723</v>
       </c>
       <c r="R69" t="n">
-        <v>0.5019681170464317</v>
+        <v>0.501968117046409</v>
       </c>
       <c r="S69" t="n">
-        <v>0.251605507544825</v>
+        <v>0.2516055075448148</v>
       </c>
       <c r="T69" t="n">
-        <v>0.1423062444553578</v>
+        <v>0.1423062444553569</v>
       </c>
       <c r="U69" t="n">
-        <v>0.03897847345008188</v>
+        <v>0.0389784734500818</v>
       </c>
       <c r="V69" t="n">
-        <v>0.127249069315495</v>
+        <v>0.1272490693154936</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002942399999994905</v>
+        <v>0.002264500000002556</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6158,13 +6158,13 @@
         <v>359.9832169206787</v>
       </c>
       <c r="F70" t="n">
-        <v>39.79985186809287</v>
+        <v>39.79985186809288</v>
       </c>
       <c r="G70" t="n">
-        <v>48.58142303557243</v>
+        <v>48.58142303557237</v>
       </c>
       <c r="H70" t="n">
-        <v>3.371835174929718</v>
+        <v>3.371835174929724</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6188,25 +6188,25 @@
         <v>6.005041047354978</v>
       </c>
       <c r="P70" t="n">
-        <v>40.08020546186518</v>
+        <v>40.0802054618652</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.01818208735850026</v>
+        <v>0.0181820873585005</v>
       </c>
       <c r="R70" t="n">
-        <v>0.4273740731033007</v>
+        <v>0.4273740731032987</v>
       </c>
       <c r="S70" t="n">
-        <v>0.0850999093851206</v>
+        <v>0.08509990938512201</v>
       </c>
       <c r="T70" t="n">
-        <v>0.6140224572730035</v>
+        <v>0.6140224572730076</v>
       </c>
       <c r="U70" t="n">
-        <v>0.04024142648391279</v>
+        <v>0.04024142648391286</v>
       </c>
       <c r="V70" t="n">
-        <v>0.1726888299556401</v>
+        <v>0.1726888299556336</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002159300000002418</v>
+        <v>0.00158259999999899</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6243,7 +6243,7 @@
         <v>38.91671149046164</v>
       </c>
       <c r="G71" t="n">
-        <v>53.34340531459306</v>
+        <v>53.34340531459305</v>
       </c>
       <c r="H71" t="n">
         <v>12.21609955891628</v>
@@ -6273,19 +6273,19 @@
         <v>46.87688514408934</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.02021221941028215</v>
+        <v>0.02021221941028038</v>
       </c>
       <c r="R71" t="n">
-        <v>0.4880319576454326</v>
+        <v>0.4880319576453273</v>
       </c>
       <c r="S71" t="n">
-        <v>0.2069123849333447</v>
+        <v>0.2069123849332927</v>
       </c>
       <c r="T71" t="n">
-        <v>0.3321138307146901</v>
+        <v>0.332113830714638</v>
       </c>
       <c r="U71" t="n">
-        <v>0.04182432092500554</v>
+        <v>0.04182432092500536</v>
       </c>
       <c r="V71" t="n">
         <v>0.1597243113366575</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002539799999993875</v>
+        <v>0.001918799999998555</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6325,7 +6325,7 @@
         <v>39.68025978356017</v>
       </c>
       <c r="G72" t="n">
-        <v>167.3094270520253</v>
+        <v>167.3094270520252</v>
       </c>
       <c r="H72" t="n">
         <v>13.44519634887332</v>
@@ -6352,25 +6352,25 @@
         <v>12.51164893290605</v>
       </c>
       <c r="P72" t="n">
-        <v>21.84252270087418</v>
+        <v>21.8425227008742</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.01734580613190128</v>
+        <v>0.01734580613190157</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2936778684984048</v>
+        <v>0.2936778684984118</v>
       </c>
       <c r="S72" t="n">
-        <v>0.08528818372984361</v>
+        <v>0.0852881837298471</v>
       </c>
       <c r="T72" t="n">
-        <v>0.2221347853226619</v>
+        <v>0.222134785322665</v>
       </c>
       <c r="U72" t="n">
-        <v>0.04037624667013</v>
+        <v>0.04037624667012998</v>
       </c>
       <c r="V72" t="n">
-        <v>0.05022843403597201</v>
+        <v>0.05022843403596958</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002227500000003602</v>
+        <v>0.001701999999994541</v>
       </c>
       <c r="Y72" t="n">
         <v>8</v>
@@ -6404,13 +6404,13 @@
         <v>0.01392905773729696</v>
       </c>
       <c r="F73" t="n">
-        <v>40.22435291640833</v>
+        <v>40.22435291640834</v>
       </c>
       <c r="G73" t="n">
         <v>35.74348759829938</v>
       </c>
       <c r="H73" t="n">
-        <v>7.081101814249545</v>
+        <v>7.081101814249549</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6434,25 +6434,25 @@
         <v>7.860159812544205</v>
       </c>
       <c r="P73" t="n">
-        <v>44.92685611939748</v>
+        <v>44.9268561193975</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.01958339768086086</v>
+        <v>0.01958339768086107</v>
       </c>
       <c r="R73" t="n">
-        <v>0.4529715618761156</v>
+        <v>0.4529715618761188</v>
       </c>
       <c r="S73" t="n">
-        <v>0.1152527806851778</v>
+        <v>0.1152527806851808</v>
       </c>
       <c r="T73" t="n">
-        <v>0.5569597256374659</v>
+        <v>0.5569597256374782</v>
       </c>
       <c r="U73" t="n">
-        <v>0.03915412341708396</v>
+        <v>0.03915412341708398</v>
       </c>
       <c r="V73" t="n">
-        <v>0.2608746134806088</v>
+        <v>0.2608746134806066</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.001996499999989965</v>
+        <v>0.001421299999996961</v>
       </c>
       <c r="Y73" t="n">
         <v>7</v>
@@ -6489,7 +6489,7 @@
         <v>39.9641727373978</v>
       </c>
       <c r="G74" t="n">
-        <v>18.66329833591881</v>
+        <v>18.66329833591882</v>
       </c>
       <c r="H74" t="n">
         <v>11.75080148463953</v>
@@ -6519,22 +6519,22 @@
         <v>51.02344477387458</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.01972720541558268</v>
+        <v>0.01972720541558248</v>
       </c>
       <c r="R74" t="n">
-        <v>0.5063130779470705</v>
+        <v>0.5063130779470557</v>
       </c>
       <c r="S74" t="n">
-        <v>0.1129522892147699</v>
+        <v>0.1129522892147628</v>
       </c>
       <c r="T74" t="n">
-        <v>0.7111982976033</v>
+        <v>0.7111982976032871</v>
       </c>
       <c r="U74" t="n">
-        <v>0.04035507936483705</v>
+        <v>0.04035507936483708</v>
       </c>
       <c r="V74" t="n">
-        <v>0.1556033046736511</v>
+        <v>0.1556033046736503</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001935000000003129</v>
+        <v>0.001396600000006742</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6574,7 +6574,7 @@
         <v>114.6995466028</v>
       </c>
       <c r="H75" t="n">
-        <v>9.649207091949943</v>
+        <v>9.649207091949945</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6601,22 +6601,22 @@
         <v>35.15557771006053</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.0201442627720297</v>
+        <v>0.02014426277203106</v>
       </c>
       <c r="R75" t="n">
-        <v>0.4648551040022493</v>
+        <v>0.4648551040022698</v>
       </c>
       <c r="S75" t="n">
-        <v>0.1843808198993653</v>
+        <v>0.1843808198993805</v>
       </c>
       <c r="T75" t="n">
-        <v>0.1871058378796804</v>
+        <v>0.1871058378796897</v>
       </c>
       <c r="U75" t="n">
-        <v>0.03642140387536815</v>
+        <v>0.03642140387536814</v>
       </c>
       <c r="V75" t="n">
-        <v>0.1211459505127257</v>
+        <v>0.1211459505127265</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.004490000000004102</v>
+        <v>0.002070199999998579</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6650,13 +6650,13 @@
         <v>359.9820097080919</v>
       </c>
       <c r="F76" t="n">
-        <v>39.84504521710883</v>
+        <v>39.84504521710882</v>
       </c>
       <c r="G76" t="n">
-        <v>36.51114499492029</v>
+        <v>36.51114499492031</v>
       </c>
       <c r="H76" t="n">
-        <v>12.31015427054864</v>
+        <v>12.31015427054863</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6680,25 +6680,25 @@
         <v>11.4520711461201</v>
       </c>
       <c r="P76" t="n">
-        <v>50.09911007836134</v>
+        <v>50.09911007836133</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.02064636159664791</v>
+        <v>0.02064636159664768</v>
       </c>
       <c r="R76" t="n">
-        <v>0.4977169878614853</v>
+        <v>0.497716987861491</v>
       </c>
       <c r="S76" t="n">
-        <v>0.1714958496450333</v>
+        <v>0.1714958496450334</v>
       </c>
       <c r="T76" t="n">
-        <v>0.4666166140338768</v>
+        <v>0.4666166140338696</v>
       </c>
       <c r="U76" t="n">
-        <v>0.03642000628561477</v>
+        <v>0.03642000628561484</v>
       </c>
       <c r="V76" t="n">
-        <v>0.03531508690575282</v>
+        <v>0.03531508690575508</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002431100000009678</v>
+        <v>0.001774400000002174</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6732,13 +6732,13 @@
         <v>359.9609808120198</v>
       </c>
       <c r="F77" t="n">
-        <v>40.6474891093076</v>
+        <v>40.64748910930761</v>
       </c>
       <c r="G77" t="n">
-        <v>98.40546658659552</v>
+        <v>98.40546658659542</v>
       </c>
       <c r="H77" t="n">
-        <v>3.918188021890141</v>
+        <v>3.918188021890143</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6759,28 +6759,28 @@
         <v>36.83621895458627</v>
       </c>
       <c r="O77" t="n">
-        <v>8.819425174886694</v>
+        <v>8.819425174886707</v>
       </c>
       <c r="P77" t="n">
-        <v>37.79063568615954</v>
+        <v>37.79063568615955</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.01915766700585589</v>
+        <v>0.01915766700585671</v>
       </c>
       <c r="R77" t="n">
-        <v>0.4044871449346699</v>
+        <v>0.4044871449346743</v>
       </c>
       <c r="S77" t="n">
-        <v>0.1066755642769154</v>
+        <v>0.1066755642769213</v>
       </c>
       <c r="T77" t="n">
-        <v>0.4447408594916548</v>
+        <v>0.4447408594916767</v>
       </c>
       <c r="U77" t="n">
-        <v>0.03833624830831212</v>
+        <v>0.03833624830831211</v>
       </c>
       <c r="V77" t="n">
-        <v>0.240030658439589</v>
+        <v>0.240030658439594</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.003485499999996478</v>
+        <v>0.001574000000005071</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6817,10 +6817,10 @@
         <v>39.83123514487873</v>
       </c>
       <c r="G78" t="n">
-        <v>55.91189980934936</v>
+        <v>55.91189980934938</v>
       </c>
       <c r="H78" t="n">
-        <v>12.81273549081079</v>
+        <v>12.81273549081078</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6844,25 +6844,25 @@
         <v>16.86487338381049</v>
       </c>
       <c r="P78" t="n">
-        <v>47.89196556450775</v>
+        <v>47.89196556450774</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.02088603595976018</v>
+        <v>0.02088603595976117</v>
       </c>
       <c r="R78" t="n">
-        <v>0.5182231115185613</v>
+        <v>0.51822311151862</v>
       </c>
       <c r="S78" t="n">
-        <v>0.2252467182374459</v>
+        <v>0.2252467182374742</v>
       </c>
       <c r="T78" t="n">
-        <v>0.3265866273651569</v>
+        <v>0.3265866273651817</v>
       </c>
       <c r="U78" t="n">
-        <v>0.03813442966152211</v>
+        <v>0.03813442966152219</v>
       </c>
       <c r="V78" t="n">
-        <v>0.01593916033972789</v>
+        <v>0.01593916033972883</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002712900000005902</v>
+        <v>0.002814900000004172</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6896,13 +6896,13 @@
         <v>0.007248809733315257</v>
       </c>
       <c r="F79" t="n">
-        <v>39.90788030999941</v>
+        <v>39.9078803099994</v>
       </c>
       <c r="G79" t="n">
         <v>165.2490081821233</v>
       </c>
       <c r="H79" t="n">
-        <v>10.57367736819882</v>
+        <v>10.57367736819881</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6929,22 +6929,22 @@
         <v>25.40629661758619</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.01743923011047429</v>
+        <v>0.01743923011047509</v>
       </c>
       <c r="R79" t="n">
-        <v>0.304312299174222</v>
+        <v>0.3043122991742173</v>
       </c>
       <c r="S79" t="n">
-        <v>0.08157508902140288</v>
+        <v>0.08157508902140585</v>
       </c>
       <c r="T79" t="n">
-        <v>0.3059817041370332</v>
+        <v>0.3059817041370516</v>
       </c>
       <c r="U79" t="n">
-        <v>0.03994491956578191</v>
+        <v>0.03994491956578185</v>
       </c>
       <c r="V79" t="n">
-        <v>0.04437703561415801</v>
+        <v>0.04437703561415884</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002200700000003053</v>
+        <v>0.001629800000003456</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -6978,13 +6978,13 @@
         <v>359.9824604436878</v>
       </c>
       <c r="F80" t="n">
-        <v>40.67020442645359</v>
+        <v>40.67020442645358</v>
       </c>
       <c r="G80" t="n">
-        <v>9.371842098588145</v>
+        <v>9.371842098588132</v>
       </c>
       <c r="H80" t="n">
-        <v>10.60222444530451</v>
+        <v>10.60222444530452</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -7011,22 +7011,22 @@
         <v>50.70965044334585</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.01849592792676511</v>
+        <v>0.01849592792676517</v>
       </c>
       <c r="R80" t="n">
-        <v>0.6229247065790611</v>
+        <v>0.6229247065790648</v>
       </c>
       <c r="S80" t="n">
         <v>0.07918727156550118</v>
       </c>
       <c r="T80" t="n">
-        <v>1.009421269597012</v>
+        <v>1.009421269597017</v>
       </c>
       <c r="U80" t="n">
-        <v>0.04017868829299146</v>
+        <v>0.04017868829299145</v>
       </c>
       <c r="V80" t="n">
-        <v>0.1569781602385444</v>
+        <v>0.1569781602385424</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002045699999996486</v>
+        <v>0.001408399999995424</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7063,10 +7063,10 @@
         <v>40.39722524584312</v>
       </c>
       <c r="G81" t="n">
-        <v>86.73449376583872</v>
+        <v>86.73449376583875</v>
       </c>
       <c r="H81" t="n">
-        <v>8.925133887514933</v>
+        <v>8.92513388751493</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7090,25 +7090,25 @@
         <v>17.11558324774047</v>
       </c>
       <c r="P81" t="n">
-        <v>40.1699298955554</v>
+        <v>40.16992989555539</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.02054428652433137</v>
+        <v>0.02054428652433033</v>
       </c>
       <c r="R81" t="n">
-        <v>0.4776530082142195</v>
+        <v>0.4776530082141961</v>
       </c>
       <c r="S81" t="n">
-        <v>0.1895987495212211</v>
+        <v>0.1895987495212072</v>
       </c>
       <c r="T81" t="n">
-        <v>0.2530338671975977</v>
+        <v>0.2530338671975838</v>
       </c>
       <c r="U81" t="n">
-        <v>0.03773768494262739</v>
+        <v>0.0377376849426273</v>
       </c>
       <c r="V81" t="n">
-        <v>0.2218374883857117</v>
+        <v>0.2218374883857103</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002460300000009852</v>
+        <v>0.001794400000001417</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7142,13 +7142,13 @@
         <v>359.9935096739198</v>
       </c>
       <c r="F82" t="n">
-        <v>39.83307052108448</v>
+        <v>39.83307052108444</v>
       </c>
       <c r="G82" t="n">
-        <v>95.19724118763709</v>
+        <v>95.19724118763715</v>
       </c>
       <c r="H82" t="n">
-        <v>11.28202648384864</v>
+        <v>11.28202648384863</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -7172,25 +7172,25 @@
         <v>22.14720827584101</v>
       </c>
       <c r="P82" t="n">
-        <v>38.85728969939196</v>
+        <v>38.85728969939192</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.02025672975740853</v>
+        <v>0.02025672975740667</v>
       </c>
       <c r="R82" t="n">
-        <v>0.4932327967431484</v>
+        <v>0.4932327967430628</v>
       </c>
       <c r="S82" t="n">
-        <v>0.2261822257280591</v>
+        <v>0.2261822257280149</v>
       </c>
       <c r="T82" t="n">
-        <v>0.1795992033794871</v>
+        <v>0.1795992033794739</v>
       </c>
       <c r="U82" t="n">
-        <v>0.03818857079872438</v>
+        <v>0.03818857079872435</v>
       </c>
       <c r="V82" t="n">
-        <v>0.08389075170760292</v>
+        <v>0.08389075170760965</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.00277189999999905</v>
+        <v>0.002051499999993212</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7224,13 +7224,13 @@
         <v>0.04706849203424558</v>
       </c>
       <c r="F83" t="n">
-        <v>40.63823619752596</v>
+        <v>40.63823619752594</v>
       </c>
       <c r="G83" t="n">
-        <v>68.37845731735791</v>
+        <v>68.37845731735788</v>
       </c>
       <c r="H83" t="n">
-        <v>6.842888501051561</v>
+        <v>6.842888501051559</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7254,25 +7254,25 @@
         <v>12.15029130523276</v>
       </c>
       <c r="P83" t="n">
-        <v>41.98815495677196</v>
+        <v>41.98815495677195</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.02010951562029859</v>
+        <v>0.02010951562029923</v>
       </c>
       <c r="R83" t="n">
-        <v>0.4560747795115443</v>
+        <v>0.4560747795115535</v>
       </c>
       <c r="S83" t="n">
-        <v>0.1503291035680837</v>
+        <v>0.1503291035680928</v>
       </c>
       <c r="T83" t="n">
-        <v>0.3721529684094975</v>
+        <v>0.3721529684095176</v>
       </c>
       <c r="U83" t="n">
         <v>0.04047186909518619</v>
       </c>
       <c r="V83" t="n">
-        <v>0.2118961730320828</v>
+        <v>0.2118961730320836</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002458799999999428</v>
+        <v>0.001827200000001028</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7306,13 +7306,13 @@
         <v>359.9676341319937</v>
       </c>
       <c r="F84" t="n">
-        <v>40.0329135752179</v>
+        <v>40.03291357521792</v>
       </c>
       <c r="G84" t="n">
-        <v>48.00139984472731</v>
+        <v>48.00139984472728</v>
       </c>
       <c r="H84" t="n">
-        <v>11.11785485245726</v>
+        <v>11.11785485245727</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7336,25 +7336,25 @@
         <v>13.42585310277009</v>
       </c>
       <c r="P84" t="n">
-        <v>47.64555419554944</v>
+        <v>47.64555419554947</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.02073532190797568</v>
+        <v>0.02073532190797634</v>
       </c>
       <c r="R84" t="n">
-        <v>0.4962892072342955</v>
+        <v>0.4962892072342681</v>
       </c>
       <c r="S84" t="n">
-        <v>0.1851746568429601</v>
+        <v>0.1851746568429583</v>
       </c>
       <c r="T84" t="n">
-        <v>0.39023878597981</v>
+        <v>0.3902387859798226</v>
       </c>
       <c r="U84" t="n">
-        <v>0.04311107797694956</v>
+        <v>0.04311107797694959</v>
       </c>
       <c r="V84" t="n">
-        <v>0.1686633107255855</v>
+        <v>0.168663310725591</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.003389900000001944</v>
+        <v>0.001890799999998194</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7388,7 +7388,7 @@
         <v>359.9994740915201</v>
       </c>
       <c r="F85" t="n">
-        <v>39.49985200029217</v>
+        <v>39.49985200029219</v>
       </c>
       <c r="G85" t="n">
         <v>46.23681416301628</v>
@@ -7418,25 +7418,25 @@
         <v>13.10593559425421</v>
       </c>
       <c r="P85" t="n">
-        <v>47.25632880588309</v>
+        <v>47.25632880588311</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.02035923266739545</v>
+        <v>0.02035923266739601</v>
       </c>
       <c r="R85" t="n">
-        <v>0.4817543947947199</v>
+        <v>0.4817543947947385</v>
       </c>
       <c r="S85" t="n">
-        <v>0.1781000591108452</v>
+        <v>0.1781000591108543</v>
       </c>
       <c r="T85" t="n">
-        <v>0.3940518734217071</v>
+        <v>0.3940518734217202</v>
       </c>
       <c r="U85" t="n">
-        <v>0.03960080360373031</v>
+        <v>0.03960080360373027</v>
       </c>
       <c r="V85" t="n">
-        <v>0.07244781360708102</v>
+        <v>0.0724478136070795</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002573099999992223</v>
+        <v>0.001914799999994443</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7476,7 +7476,7 @@
         <v>8.303753387195673</v>
       </c>
       <c r="H86" t="n">
-        <v>7.137909411156748</v>
+        <v>7.137909411156747</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>46.50060123783685</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.01768197663303049</v>
+        <v>0.01768197663303068</v>
       </c>
       <c r="R86" t="n">
-        <v>0.6560807355583578</v>
+        <v>0.6560807355583489</v>
       </c>
       <c r="S86" t="n">
-        <v>0.06540922194698998</v>
+        <v>0.06540922194699164</v>
       </c>
       <c r="T86" t="n">
-        <v>1.058577085157238</v>
+        <v>1.058577085157248</v>
       </c>
       <c r="U86" t="n">
-        <v>0.04470023629124957</v>
+        <v>0.04470023629124955</v>
       </c>
       <c r="V86" t="n">
-        <v>0.1174341229851056</v>
+        <v>0.1174341229851059</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.003785500000006436</v>
+        <v>0.001435700000001816</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7555,10 +7555,10 @@
         <v>40.0152374920082</v>
       </c>
       <c r="G87" t="n">
-        <v>111.3178251870965</v>
+        <v>111.3178251870964</v>
       </c>
       <c r="H87" t="n">
-        <v>9.094191476603573</v>
+        <v>9.094191476603569</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7582,25 +7582,25 @@
         <v>18.74708344537283</v>
       </c>
       <c r="P87" t="n">
-        <v>35.30457067164728</v>
+        <v>35.30457067164729</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.01975302315054886</v>
+        <v>0.01975302315055024</v>
       </c>
       <c r="R87" t="n">
-        <v>0.4491696569169534</v>
+        <v>0.4491696569170142</v>
       </c>
       <c r="S87" t="n">
-        <v>0.177545753006116</v>
+        <v>0.1775457530061436</v>
       </c>
       <c r="T87" t="n">
-        <v>0.1970932239394134</v>
+        <v>0.1970932239394254</v>
       </c>
       <c r="U87" t="n">
-        <v>0.04082980209731792</v>
+        <v>0.04082980209731788</v>
       </c>
       <c r="V87" t="n">
-        <v>0.01977038406438187</v>
+        <v>0.01977038406438461</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002808999999999173</v>
+        <v>0.002038400000003548</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7637,10 +7637,10 @@
         <v>40.01512311488158</v>
       </c>
       <c r="G88" t="n">
-        <v>38.88768520007947</v>
+        <v>38.8876852000795</v>
       </c>
       <c r="H88" t="n">
-        <v>5.142355300305952</v>
+        <v>5.142355300305949</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7667,22 +7667,22 @@
         <v>42.50189133935093</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.01889534817139198</v>
+        <v>0.01889534817139155</v>
       </c>
       <c r="R88" t="n">
-        <v>0.4372910920706772</v>
+        <v>0.4372910920706821</v>
       </c>
       <c r="S88" t="n">
-        <v>0.09831340345376345</v>
+        <v>0.09831340345375908</v>
       </c>
       <c r="T88" t="n">
-        <v>0.5890033359106596</v>
+        <v>0.5890033359106414</v>
       </c>
       <c r="U88" t="n">
-        <v>0.04053357497836934</v>
+        <v>0.04053357497836937</v>
       </c>
       <c r="V88" t="n">
-        <v>0.2397825509391633</v>
+        <v>0.2397825509391653</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002390900000008855</v>
+        <v>0.001935899999999435</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>0.001909478288699972</v>
       </c>
       <c r="F89" t="n">
-        <v>40.12655799986749</v>
+        <v>40.12655799986752</v>
       </c>
       <c r="G89" t="n">
         <v>118.3352420852863</v>
       </c>
       <c r="H89" t="n">
-        <v>14.51300152648851</v>
+        <v>14.51300152648852</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7743,28 +7743,28 @@
         <v>33.52902134866883</v>
       </c>
       <c r="O89" t="n">
-        <v>29.4334097370953</v>
+        <v>29.43340973709531</v>
       </c>
       <c r="P89" t="n">
-        <v>33.57826765949331</v>
+        <v>33.57826765949333</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.02008784367447646</v>
+        <v>0.0200878436744763</v>
       </c>
       <c r="R89" t="n">
-        <v>0.5134855744979459</v>
+        <v>0.5134855744978319</v>
       </c>
       <c r="S89" t="n">
-        <v>0.2523179112746199</v>
+        <v>0.252317911274574</v>
       </c>
       <c r="T89" t="n">
-        <v>0.1066524994814268</v>
+        <v>0.1066524994814231</v>
       </c>
       <c r="U89" t="n">
-        <v>0.04036740687816853</v>
+        <v>0.04036740687816854</v>
       </c>
       <c r="V89" t="n">
-        <v>0.01927409094051096</v>
+        <v>0.01927409094052132</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.003123000000002207</v>
+        <v>0.002175499999999886</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7798,13 +7798,13 @@
         <v>0.001570107374456722</v>
       </c>
       <c r="F90" t="n">
-        <v>40.67222619644458</v>
+        <v>40.67222619644459</v>
       </c>
       <c r="G90" t="n">
         <v>116.0682511343814</v>
       </c>
       <c r="H90" t="n">
-        <v>9.259898134023828</v>
+        <v>9.25989813402383</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7828,25 +7828,25 @@
         <v>18.58317011815454</v>
       </c>
       <c r="P90" t="n">
-        <v>34.99754348612478</v>
+        <v>34.9975434861248</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.02004111276095676</v>
+        <v>0.02004111276095688</v>
       </c>
       <c r="R90" t="n">
-        <v>0.4585309648932005</v>
+        <v>0.458530964893228</v>
       </c>
       <c r="S90" t="n">
-        <v>0.1771038419725287</v>
+        <v>0.177103841972538</v>
       </c>
       <c r="T90" t="n">
         <v>0.1967888709626146</v>
       </c>
       <c r="U90" t="n">
-        <v>0.03985051749678706</v>
+        <v>0.03985051749678713</v>
       </c>
       <c r="V90" t="n">
-        <v>0.09706900402803477</v>
+        <v>0.09706900402803595</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002728300000001127</v>
+        <v>0.001956999999997322</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7880,13 +7880,13 @@
         <v>0.04734001100858727</v>
       </c>
       <c r="F91" t="n">
-        <v>40.01256720606293</v>
+        <v>40.01256720606292</v>
       </c>
       <c r="G91" t="n">
-        <v>94.29428183740981</v>
+        <v>94.29428183740987</v>
       </c>
       <c r="H91" t="n">
-        <v>5.953561368581486</v>
+        <v>5.953561368581485</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7913,22 +7913,22 @@
         <v>37.79023208130467</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.01945376819369873</v>
+        <v>0.01945376819369925</v>
       </c>
       <c r="R91" t="n">
-        <v>0.4193775416053941</v>
+        <v>0.4193775416053735</v>
       </c>
       <c r="S91" t="n">
-        <v>0.1385338580220913</v>
+        <v>0.1385338580220905</v>
       </c>
       <c r="T91" t="n">
-        <v>0.3216347305125568</v>
+        <v>0.3216347305125674</v>
       </c>
       <c r="U91" t="n">
-        <v>0.04157805004591622</v>
+        <v>0.0415780500459162</v>
       </c>
       <c r="V91" t="n">
-        <v>0.1840101156292326</v>
+        <v>0.1840101156292347</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002314599999991174</v>
+        <v>0.002205000000003565</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -7965,10 +7965,10 @@
         <v>39.34306223324857</v>
       </c>
       <c r="G92" t="n">
-        <v>24.25904180998003</v>
+        <v>24.25904180997996</v>
       </c>
       <c r="H92" t="n">
-        <v>5.526450065230121</v>
+        <v>5.526450065230136</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7992,25 +7992,25 @@
         <v>5.185388292696501</v>
       </c>
       <c r="P92" t="n">
-        <v>42.94860443541063</v>
+        <v>42.94860443541064</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.0179900537669762</v>
+        <v>0.01799005376697615</v>
       </c>
       <c r="R92" t="n">
-        <v>0.4641560669067581</v>
+        <v>0.4641560669067604</v>
       </c>
       <c r="S92" t="n">
-        <v>0.0819385634435037</v>
+        <v>0.08193856344350343</v>
       </c>
       <c r="T92" t="n">
-        <v>0.7058177069266014</v>
+        <v>0.7058177069265952</v>
       </c>
       <c r="U92" t="n">
-        <v>0.04286196886925872</v>
+        <v>0.04286196886925877</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4204483779735183</v>
+        <v>0.4204483779735284</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.00222859999999514</v>
+        <v>0.00160280000000057</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8044,13 +8044,13 @@
         <v>359.9669940430989</v>
       </c>
       <c r="F93" t="n">
-        <v>39.53239467273547</v>
+        <v>39.53239467273548</v>
       </c>
       <c r="G93" t="n">
-        <v>35.55406285812729</v>
+        <v>35.5540628581272</v>
       </c>
       <c r="H93" t="n">
-        <v>7.020945124070477</v>
+        <v>7.020945124070498</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>7.865322740481241</v>
       </c>
       <c r="P93" t="n">
-        <v>44.18612095795248</v>
+        <v>44.18612095795251</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.01921635974158941</v>
+        <v>0.01921635974159019</v>
       </c>
       <c r="R93" t="n">
-        <v>0.4379421262696373</v>
+        <v>0.4379421262696368</v>
       </c>
       <c r="S93" t="n">
-        <v>0.1121117706985106</v>
+        <v>0.1121117706985167</v>
       </c>
       <c r="T93" t="n">
-        <v>0.5422921610984346</v>
+        <v>0.5422921610984601</v>
       </c>
       <c r="U93" t="n">
-        <v>0.03761813495469159</v>
+        <v>0.03761813495469163</v>
       </c>
       <c r="V93" t="n">
-        <v>0.05525153746752218</v>
+        <v>0.05525153746753092</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002207699999999591</v>
+        <v>0.001437599999995598</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8126,7 +8126,7 @@
         <v>0.04765722832947057</v>
       </c>
       <c r="F94" t="n">
-        <v>39.52576383730947</v>
+        <v>39.52576383730946</v>
       </c>
       <c r="G94" t="n">
         <v>161.0662499011205</v>
@@ -8156,25 +8156,25 @@
         <v>15.350635932261</v>
       </c>
       <c r="P94" t="n">
-        <v>23.28131285832464</v>
+        <v>23.28131285832463</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.01784366271891565</v>
+        <v>0.01784366271891545</v>
       </c>
       <c r="R94" t="n">
-        <v>0.3294587666755817</v>
+        <v>0.3294587666756059</v>
       </c>
       <c r="S94" t="n">
-        <v>0.1037231992573544</v>
+        <v>0.1037231992573582</v>
       </c>
       <c r="T94" t="n">
-        <v>0.1812648322202601</v>
+        <v>0.1812648322202534</v>
       </c>
       <c r="U94" t="n">
-        <v>0.03558995863591757</v>
+        <v>0.03558995863591752</v>
       </c>
       <c r="V94" t="n">
-        <v>0.1616583979300479</v>
+        <v>0.1616583979300484</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002468300000003865</v>
+        <v>0.001832600000000184</v>
       </c>
       <c r="Y94" t="n">
         <v>9</v>
@@ -8238,25 +8238,25 @@
         <v>22.20073952829241</v>
       </c>
       <c r="P95" t="n">
-        <v>35.30743125486758</v>
+        <v>35.30743125486759</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.01979262318560948</v>
+        <v>0.01979262318560929</v>
       </c>
       <c r="R95" t="n">
-        <v>0.4640960958877519</v>
+        <v>0.4640960958877387</v>
       </c>
       <c r="S95" t="n">
-        <v>0.2034914109255274</v>
+        <v>0.2034914109255209</v>
       </c>
       <c r="T95" t="n">
-        <v>0.1584558140999232</v>
+        <v>0.1584558140999237</v>
       </c>
       <c r="U95" t="n">
-        <v>0.03598859418666728</v>
+        <v>0.03598859418666726</v>
       </c>
       <c r="V95" t="n">
-        <v>0.05969158860987445</v>
+        <v>0.05969158860987412</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.00458629999999971</v>
+        <v>0.002147999999998262</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8290,13 +8290,13 @@
         <v>0.006755332610391447</v>
       </c>
       <c r="F96" t="n">
-        <v>39.62078097604646</v>
+        <v>39.62078097604643</v>
       </c>
       <c r="G96" t="n">
-        <v>129.284264518239</v>
+        <v>129.2842645182391</v>
       </c>
       <c r="H96" t="n">
-        <v>10.13558763083635</v>
+        <v>10.13558763083634</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8317,28 +8317,28 @@
         <v>31.41112353494288</v>
       </c>
       <c r="O96" t="n">
-        <v>19.86810933294457</v>
+        <v>19.86810933294456</v>
       </c>
       <c r="P96" t="n">
-        <v>31.15798154106176</v>
+        <v>31.15798154106173</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.01924718728994337</v>
+        <v>0.01924718728994522</v>
       </c>
       <c r="R96" t="n">
-        <v>0.4225935060922049</v>
+        <v>0.4225935060923324</v>
       </c>
       <c r="S96" t="n">
-        <v>0.1637257843950155</v>
+        <v>0.1637257843950628</v>
       </c>
       <c r="T96" t="n">
-        <v>0.1616922095894079</v>
+        <v>0.1616922095894109</v>
       </c>
       <c r="U96" t="n">
-        <v>0.03984147823612479</v>
+        <v>0.03984147823612482</v>
       </c>
       <c r="V96" t="n">
-        <v>0.06573061726469892</v>
+        <v>0.0657306172647016</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002733200000008651</v>
+        <v>0.001983700000003807</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8375,10 +8375,10 @@
         <v>40.04815995210361</v>
       </c>
       <c r="G97" t="n">
-        <v>40.0583315104494</v>
+        <v>40.05833151044938</v>
       </c>
       <c r="H97" t="n">
-        <v>5.470038437133646</v>
+        <v>5.470038437133652</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8402,25 +8402,25 @@
         <v>7.231902020774592</v>
       </c>
       <c r="P97" t="n">
-        <v>42.79630444426935</v>
+        <v>42.79630444426936</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.01907936108605176</v>
+        <v>0.01907936108605213</v>
       </c>
       <c r="R97" t="n">
-        <v>0.4366947697590984</v>
+        <v>0.4366947697591086</v>
       </c>
       <c r="S97" t="n">
-        <v>0.1032424568200195</v>
+        <v>0.1032424568200214</v>
       </c>
       <c r="T97" t="n">
-        <v>0.5669804400390909</v>
+        <v>0.5669804400391071</v>
       </c>
       <c r="U97" t="n">
-        <v>0.03775541141231308</v>
+        <v>0.03775541141231305</v>
       </c>
       <c r="V97" t="n">
-        <v>0.1260399035922015</v>
+        <v>0.1260399035922053</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.003730400000009126</v>
+        <v>0.001444100000000503</v>
       </c>
       <c r="Y97" t="n">
         <v>7</v>
@@ -8454,13 +8454,13 @@
         <v>0.04546110982968093</v>
       </c>
       <c r="F98" t="n">
-        <v>39.64519979661453</v>
+        <v>39.64519979661451</v>
       </c>
       <c r="G98" t="n">
-        <v>39.64260339527995</v>
+        <v>39.64260339527993</v>
       </c>
       <c r="H98" t="n">
-        <v>13.2076783002773</v>
+        <v>13.20767830027729</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8484,25 +8484,25 @@
         <v>12.9416994996944</v>
       </c>
       <c r="P98" t="n">
-        <v>50.51653669909548</v>
+        <v>50.51653669909545</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.02063060565558156</v>
+        <v>0.02063060565558229</v>
       </c>
       <c r="R98" t="n">
-        <v>0.50632553695727</v>
+        <v>0.5063255369573304</v>
       </c>
       <c r="S98" t="n">
-        <v>0.1904404061913625</v>
+        <v>0.1904404061913875</v>
       </c>
       <c r="T98" t="n">
-        <v>0.4326536047874876</v>
+        <v>0.4326536047875193</v>
       </c>
       <c r="U98" t="n">
-        <v>0.03869035434361305</v>
+        <v>0.03869035434361304</v>
       </c>
       <c r="V98" t="n">
-        <v>0.1939740487666969</v>
+        <v>0.1939740487666985</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002506100000005063</v>
+        <v>0.00191270000000543</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8569,22 +8569,22 @@
         <v>23.62762070434082</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01854606415431586</v>
+        <v>0.0185460641543169</v>
       </c>
       <c r="R99" t="n">
-        <v>0.4055621880930667</v>
+        <v>0.4055621880930917</v>
       </c>
       <c r="S99" t="n">
-        <v>0.1496129155246609</v>
+        <v>0.149612915524673</v>
       </c>
       <c r="T99" t="n">
-        <v>0.1168469263043279</v>
+        <v>0.1168469263043273</v>
       </c>
       <c r="U99" t="n">
-        <v>0.03922174599358186</v>
+        <v>0.03922174599358196</v>
       </c>
       <c r="V99" t="n">
-        <v>0.08045345323047338</v>
+        <v>0.08045345323047308</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.003064399999999523</v>
+        <v>0.001968000000005077</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8618,13 +8618,13 @@
         <v>0.0614110892340014</v>
       </c>
       <c r="F100" t="n">
-        <v>39.11429715676157</v>
+        <v>39.11429715676155</v>
       </c>
       <c r="G100" t="n">
         <v>134.3244447151295</v>
       </c>
       <c r="H100" t="n">
-        <v>9.686272942496551</v>
+        <v>9.686272942496547</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8648,25 +8648,25 @@
         <v>18.56027547590206</v>
       </c>
       <c r="P100" t="n">
-        <v>29.93315827082865</v>
+        <v>29.93315827082862</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01865551715496884</v>
+        <v>0.01865551715496872</v>
       </c>
       <c r="R100" t="n">
-        <v>0.3950944972128186</v>
+        <v>0.3950944972128066</v>
       </c>
       <c r="S100" t="n">
-        <v>0.1471733103736352</v>
+        <v>0.1471733103736306</v>
       </c>
       <c r="T100" t="n">
         <v>0.1709341118973676</v>
       </c>
       <c r="U100" t="n">
-        <v>0.04350410722546796</v>
+        <v>0.04350410722546793</v>
       </c>
       <c r="V100" t="n">
-        <v>0.1697612829688049</v>
+        <v>0.1697612829688079</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002506999999994264</v>
+        <v>0.001845599999995784</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8703,7 +8703,7 @@
         <v>40.32506309961241</v>
       </c>
       <c r="G101" t="n">
-        <v>120.3926935154835</v>
+        <v>120.3926935154834</v>
       </c>
       <c r="H101" t="n">
         <v>8.940650086675429</v>
@@ -8733,22 +8733,22 @@
         <v>33.91754280840885</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.0198058493018616</v>
+        <v>0.01980584930186067</v>
       </c>
       <c r="R101" t="n">
-        <v>0.4390317010863996</v>
+        <v>0.4390317010863923</v>
       </c>
       <c r="S101" t="n">
-        <v>0.1651545130822244</v>
+        <v>0.1651545130822162</v>
       </c>
       <c r="T101" t="n">
-        <v>0.1998859488326625</v>
+        <v>0.1998859488326522</v>
       </c>
       <c r="U101" t="n">
-        <v>0.03887965446889722</v>
+        <v>0.03887965446889712</v>
       </c>
       <c r="V101" t="n">
-        <v>0.06247180373547331</v>
+        <v>0.06247180373547509</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002427100000005566</v>
+        <v>0.001884799999999132</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>
